--- a/CLEAN DATA/The Boardroom Group/progress.xlsx
+++ b/CLEAN DATA/The Boardroom Group/progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8817" uniqueCount="3876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8910" uniqueCount="3917">
   <si>
     <t>Homelessness Secretariat</t>
   </si>
@@ -10718,9 +10718,6 @@
   </si>
   <si>
     <t>Toque, Khaki</t>
-  </si>
-  <si>
-    <t>Toque, Drift</t>
   </si>
   <si>
     <t>11:1200|4:1000|5:0|9:1519|8:0</t>
@@ -12145,6 +12142,132 @@
   </si>
   <si>
     <t>May 15/08</t>
+  </si>
+  <si>
+    <t>Toque, Driftwood</t>
+  </si>
+  <si>
+    <t>12:651|4:1171|11:332|9:42</t>
+  </si>
+  <si>
+    <t>12:549|4:810|11:142|9:15</t>
+  </si>
+  <si>
+    <t>12:355|4:253|11:0|9:63</t>
+  </si>
+  <si>
+    <t>Moncton</t>
+  </si>
+  <si>
+    <t>12:579|4:848|11:412|9:118</t>
+  </si>
+  <si>
+    <t>Camrose</t>
+  </si>
+  <si>
+    <t>12:232|4:723|11:0|9:223</t>
+  </si>
+  <si>
+    <t>12:470|4:710|11:290|9:100</t>
+  </si>
+  <si>
+    <t>12:2|4:2|11:1|9:0</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>12:14|4:53|11:12|9:44</t>
+  </si>
+  <si>
+    <t>Sault Ste. Marie</t>
+  </si>
+  <si>
+    <t>12:0|4:0|11:0|9:0</t>
+  </si>
+  <si>
+    <t>12:114|4:142|11:0|9:12</t>
+  </si>
+  <si>
+    <t>12:200|4:200|11:0|9:0</t>
+  </si>
+  <si>
+    <t>Welland</t>
+  </si>
+  <si>
+    <t>12:280|4:230|11:90|9:92</t>
+  </si>
+  <si>
+    <t>12:1351|4:575|11:253|9:85</t>
+  </si>
+  <si>
+    <t>12:258|4:316|11:15|9:12</t>
+  </si>
+  <si>
+    <t>12:39|4:52|11:0|9:0</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>12:218|4:252|11:35|9:24</t>
+  </si>
+  <si>
+    <t>12:381|4:608|11:153|9:130</t>
+  </si>
+  <si>
+    <t>Collingwood/Orillia</t>
+  </si>
+  <si>
+    <t>12:142|4:263|11:88|9:37</t>
+  </si>
+  <si>
+    <t>12:98|4:531|11:45|9:417</t>
+  </si>
+  <si>
+    <t>Agencies - Misc</t>
+  </si>
+  <si>
+    <t>12:241|4:395|11:42|9:14</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>12:551|4:1120|11:14|9:0</t>
+  </si>
+  <si>
+    <t>12:195|4:90|11:0|9:150</t>
+  </si>
+  <si>
+    <t>10 Toque Promo</t>
+  </si>
+  <si>
+    <t>12:79|4:97|11:10|9:0</t>
+  </si>
+  <si>
+    <t>12:1426|4:1704|11:0|9:190</t>
+  </si>
+  <si>
+    <t>12:249|4:353|11:0|9:555</t>
+  </si>
+  <si>
+    <t>12:227|4:402|11:46|9:73</t>
+  </si>
+  <si>
+    <t>12:23|4:47|11:7|9:3</t>
+  </si>
+  <si>
+    <t>12:650|4:1254|11:0|9:152</t>
+  </si>
+  <si>
+    <t>Rivoli Toque sales</t>
+  </si>
+  <si>
+    <t>12:0|4:3|11:0|9:0</t>
+  </si>
+  <si>
+    <t>12:32|4:155|11:0|9:154</t>
   </si>
 </sst>
 </file>
@@ -12645,11 +12768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2336" sqref="A2336"/>
+      <selection pane="bottomLeft" activeCell="A2367" sqref="A2367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -64499,7 +64622,7 @@
         <v>846</v>
       </c>
       <c r="E2124" s="4" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F2124" s="4">
         <v>3719</v>
@@ -64511,7 +64634,7 @@
         <v>31504.62</v>
       </c>
       <c r="I2124" s="18" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="2125" spans="1:9" ht="135" x14ac:dyDescent="0.2">
@@ -64519,13 +64642,13 @@
         <v>2008</v>
       </c>
       <c r="C2125" s="4" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="D2125" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2125" s="4" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="F2125" s="4">
         <v>2600</v>
@@ -64537,7 +64660,7 @@
         <v>26399.66</v>
       </c>
       <c r="I2125" s="18" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="2126" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -64545,13 +64668,13 @@
         <v>2008</v>
       </c>
       <c r="C2126" s="4" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D2126" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2126" s="4" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="F2126" s="4">
         <v>450</v>
@@ -64563,7 +64686,7 @@
         <v>1790</v>
       </c>
       <c r="I2126" s="18" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="2127" spans="1:9" ht="67.5" x14ac:dyDescent="0.2">
@@ -64571,13 +64694,13 @@
         <v>2008</v>
       </c>
       <c r="C2127" s="4" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="D2127" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2127" s="4" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="F2127" s="4">
         <v>1500</v>
@@ -64589,7 +64712,7 @@
         <v>20380</v>
       </c>
       <c r="I2127" s="18" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="2128" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
@@ -64597,13 +64720,13 @@
         <v>2008</v>
       </c>
       <c r="C2128" s="4" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="D2128" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2128" s="4" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="F2128" s="4">
         <v>345</v>
@@ -64615,7 +64738,7 @@
         <v>670</v>
       </c>
       <c r="I2128" s="18" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="2129" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
@@ -64629,7 +64752,7 @@
         <v>846</v>
       </c>
       <c r="E2129" s="4" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="F2129" s="4">
         <v>500</v>
@@ -64641,7 +64764,7 @@
         <v>400</v>
       </c>
       <c r="I2129" s="18" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="2130" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
@@ -64649,13 +64772,13 @@
         <v>2008</v>
       </c>
       <c r="C2130" s="4" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="D2130" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2130" s="4" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="F2130" s="4">
         <v>400</v>
@@ -64667,7 +64790,7 @@
         <v>2400</v>
       </c>
       <c r="I2130" s="18" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="2131" spans="1:9" ht="78.75" x14ac:dyDescent="0.2">
@@ -64675,13 +64798,13 @@
         <v>2008</v>
       </c>
       <c r="C2131" s="4" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="D2131" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2131" s="4" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="F2131" s="4">
         <v>4000</v>
@@ -64693,7 +64816,7 @@
         <v>29011.41</v>
       </c>
       <c r="I2131" s="18" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="2132" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -64707,7 +64830,7 @@
         <v>846</v>
       </c>
       <c r="E2132" s="4" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="F2132" s="4">
         <v>478</v>
@@ -64719,7 +64842,7 @@
         <v>4500</v>
       </c>
       <c r="I2132" s="18" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="2133" spans="1:9" x14ac:dyDescent="0.2">
@@ -64733,7 +64856,7 @@
         <v>846</v>
       </c>
       <c r="E2133" s="4" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="F2133" s="4">
         <v>400</v>
@@ -64745,7 +64868,7 @@
         <v>230</v>
       </c>
       <c r="I2133" s="4" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="2134" spans="1:9" ht="123.75" x14ac:dyDescent="0.2">
@@ -64759,7 +64882,7 @@
         <v>846</v>
       </c>
       <c r="E2134" s="4" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="F2134" s="4">
         <v>3300</v>
@@ -64771,7 +64894,7 @@
         <v>20134.669999999998</v>
       </c>
       <c r="I2134" s="18" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="2135" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
@@ -64779,13 +64902,13 @@
         <v>2008</v>
       </c>
       <c r="C2135" s="4" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="D2135" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2135" s="4" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="F2135" s="4">
         <v>4987</v>
@@ -64797,7 +64920,7 @@
         <v>57394.07</v>
       </c>
       <c r="I2135" s="18" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="2136" spans="1:9" ht="191.25" x14ac:dyDescent="0.2">
@@ -64805,13 +64928,13 @@
         <v>2008</v>
       </c>
       <c r="C2136" s="4" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="D2136" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2136" s="4" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="F2136" s="4">
         <v>2665</v>
@@ -64823,7 +64946,7 @@
         <v>23996.1</v>
       </c>
       <c r="I2136" s="18" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="2137" spans="1:9" ht="78.75" x14ac:dyDescent="0.2">
@@ -64831,13 +64954,13 @@
         <v>2008</v>
       </c>
       <c r="C2137" s="4" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="D2137" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2137" s="4" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="F2137" s="4">
         <v>1200</v>
@@ -64849,7 +64972,7 @@
         <v>2950</v>
       </c>
       <c r="I2137" s="18" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="2138" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -64857,13 +64980,13 @@
         <v>2008</v>
       </c>
       <c r="C2138" s="4" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="D2138" s="4" t="s">
         <v>846</v>
       </c>
       <c r="E2138" s="4" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="F2138" s="4">
         <v>200</v>
@@ -64875,7 +64998,7 @@
         <v>760</v>
       </c>
       <c r="I2138" s="18" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="2139" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
@@ -64889,7 +65012,7 @@
         <v>846</v>
       </c>
       <c r="E2139" s="4" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="F2139" s="4">
         <v>400</v>
@@ -64901,7 +65024,7 @@
         <v>4000</v>
       </c>
       <c r="I2139" s="18" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="2140" spans="1:9" x14ac:dyDescent="0.2">
@@ -64915,7 +65038,7 @@
         <v>72</v>
       </c>
       <c r="E2140" s="4" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="F2140" s="4">
         <v>0</v>
@@ -64927,7 +65050,7 @@
         <v>700</v>
       </c>
       <c r="I2140" s="4" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="2141" spans="1:9" x14ac:dyDescent="0.2">
@@ -64935,13 +65058,13 @@
         <v>2008</v>
       </c>
       <c r="C2141" s="4" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D2141" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E2141" s="4" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="F2141" s="4">
         <v>400</v>
@@ -64953,7 +65076,7 @@
         <v>2179</v>
       </c>
       <c r="I2141" s="4" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="2142" spans="1:9" x14ac:dyDescent="0.2">
@@ -64961,13 +65084,13 @@
         <v>2008</v>
       </c>
       <c r="C2142" s="4" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D2142" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E2142" s="4" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="F2142" s="4">
         <v>400</v>
@@ -64979,7 +65102,7 @@
         <v>0</v>
       </c>
       <c r="I2142" s="4" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="2143" spans="1:9" x14ac:dyDescent="0.2">
@@ -64987,13 +65110,13 @@
         <v>2008</v>
       </c>
       <c r="C2143" s="4" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="D2143" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E2143" s="4" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="F2143" s="4">
         <v>0</v>
@@ -65005,7 +65128,7 @@
         <v>420</v>
       </c>
       <c r="I2143" s="4" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="2144" spans="1:9" x14ac:dyDescent="0.2">
@@ -65022,7 +65145,7 @@
         <v>1847</v>
       </c>
       <c r="E2144" s="4" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="F2144" s="4">
         <v>90</v>
@@ -65034,7 +65157,7 @@
         <v>900</v>
       </c>
       <c r="I2144" s="4" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2145" spans="1:9" x14ac:dyDescent="0.2">
@@ -65051,7 +65174,7 @@
         <v>1847</v>
       </c>
       <c r="E2145" s="4" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="F2145" s="4">
         <v>10</v>
@@ -65077,7 +65200,7 @@
         <v>1847</v>
       </c>
       <c r="E2146" s="4" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="F2146" s="4">
         <v>0</v>
@@ -65103,7 +65226,7 @@
         <v>1847</v>
       </c>
       <c r="E2147" s="4" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="F2147" s="4">
         <v>60</v>
@@ -65129,7 +65252,7 @@
         <v>1847</v>
       </c>
       <c r="E2148" s="4" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="F2148" s="4">
         <v>24</v>
@@ -65155,7 +65278,7 @@
         <v>74</v>
       </c>
       <c r="E2149" s="4" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="F2149" s="4">
         <v>200</v>
@@ -65167,7 +65290,7 @@
         <v>0</v>
       </c>
       <c r="I2149" s="4" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="2150" spans="1:9" x14ac:dyDescent="0.2">
@@ -65184,7 +65307,7 @@
         <v>74</v>
       </c>
       <c r="E2150" s="4" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="F2150" s="4">
         <v>400</v>
@@ -65196,7 +65319,7 @@
         <v>0</v>
       </c>
       <c r="I2150" s="4" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="2151" spans="1:9" x14ac:dyDescent="0.2">
@@ -65213,7 +65336,7 @@
         <v>74</v>
       </c>
       <c r="E2151" s="4" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="F2151" s="4">
         <v>1200</v>
@@ -65225,7 +65348,7 @@
         <v>1000</v>
       </c>
       <c r="I2151" s="4" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="2152" spans="1:9" x14ac:dyDescent="0.2">
@@ -65242,7 +65365,7 @@
         <v>74</v>
       </c>
       <c r="E2152" s="4" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="F2152" s="4">
         <v>200</v>
@@ -65254,7 +65377,7 @@
         <v>0</v>
       </c>
       <c r="I2152" s="4" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="2153" spans="1:9" x14ac:dyDescent="0.2">
@@ -65271,7 +65394,7 @@
         <v>74</v>
       </c>
       <c r="E2153" s="4" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="F2153" s="4">
         <v>120</v>
@@ -65283,7 +65406,7 @@
         <v>0</v>
       </c>
       <c r="I2153" s="4" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="2154" spans="1:9" x14ac:dyDescent="0.2">
@@ -65294,13 +65417,13 @@
         <v>652</v>
       </c>
       <c r="C2154" s="4" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="D2154" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2154" s="4" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="F2154" s="4">
         <v>400</v>
@@ -65312,7 +65435,7 @@
         <v>4000</v>
       </c>
       <c r="I2154" s="4" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2155" spans="1:9" x14ac:dyDescent="0.2">
@@ -65323,13 +65446,13 @@
         <v>652</v>
       </c>
       <c r="C2155" s="4" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="D2155" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2155" s="4" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F2155" s="4">
         <v>50</v>
@@ -65341,7 +65464,7 @@
         <v>500</v>
       </c>
       <c r="I2155" s="4" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2156" spans="1:9" x14ac:dyDescent="0.2">
@@ -65358,7 +65481,7 @@
         <v>74</v>
       </c>
       <c r="E2156" s="4" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="F2156" s="4">
         <v>300</v>
@@ -65370,7 +65493,7 @@
         <v>3000</v>
       </c>
       <c r="I2156" s="4" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2157" spans="1:9" x14ac:dyDescent="0.2">
@@ -65381,13 +65504,13 @@
         <v>652</v>
       </c>
       <c r="C2157" s="4" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="D2157" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2157" s="4" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F2157" s="4">
         <v>50</v>
@@ -65399,7 +65522,7 @@
         <v>500</v>
       </c>
       <c r="I2157" s="4" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="2158" spans="1:9" x14ac:dyDescent="0.2">
@@ -65410,13 +65533,13 @@
         <v>652</v>
       </c>
       <c r="C2158" s="4" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="D2158" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2158" s="4" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="F2158" s="4">
         <v>0</v>
@@ -65428,7 +65551,7 @@
         <v>1873.73</v>
       </c>
       <c r="I2158" s="4" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="2159" spans="1:9" x14ac:dyDescent="0.2">
@@ -65442,7 +65565,7 @@
         <v>72</v>
       </c>
       <c r="E2159" s="4" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="F2159" s="4">
         <v>6</v>
@@ -65454,7 +65577,7 @@
         <v>120</v>
       </c>
       <c r="I2159" s="4" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="2160" spans="1:9" x14ac:dyDescent="0.2">
@@ -65468,7 +65591,7 @@
         <v>72</v>
       </c>
       <c r="E2160" s="4" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="F2160" s="4">
         <v>93</v>
@@ -65480,7 +65603,7 @@
         <v>1055</v>
       </c>
       <c r="I2160" s="4" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="2161" spans="1:9" x14ac:dyDescent="0.2">
@@ -65494,7 +65617,7 @@
         <v>72</v>
       </c>
       <c r="E2161" s="4" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="F2161" s="4">
         <v>8</v>
@@ -65506,7 +65629,7 @@
         <v>0</v>
       </c>
       <c r="I2161" s="4" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2162" spans="1:9" x14ac:dyDescent="0.2">
@@ -65514,13 +65637,13 @@
         <v>2008</v>
       </c>
       <c r="C2162" s="4" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="D2162" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2162" s="4" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="F2162" s="4">
         <v>138</v>
@@ -65532,7 +65655,7 @@
         <v>110</v>
       </c>
       <c r="I2162" s="4" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2163" spans="1:9" x14ac:dyDescent="0.2">
@@ -65540,13 +65663,13 @@
         <v>2008</v>
       </c>
       <c r="C2163" s="4" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="D2163" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2163" s="4" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="F2163" s="4">
         <v>66</v>
@@ -65558,7 +65681,7 @@
         <v>770</v>
       </c>
       <c r="I2163" s="4" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2164" spans="1:9" x14ac:dyDescent="0.2">
@@ -65566,13 +65689,13 @@
         <v>2008</v>
       </c>
       <c r="C2164" s="4" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="D2164" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2164" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="F2164" s="4">
         <v>124</v>
@@ -65584,7 +65707,7 @@
         <v>1240</v>
       </c>
       <c r="I2164" s="4" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="2165" spans="1:9" x14ac:dyDescent="0.2">
@@ -65592,13 +65715,13 @@
         <v>2008</v>
       </c>
       <c r="C2165" s="4" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="D2165" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2165" s="4" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="F2165" s="4">
         <v>3</v>
@@ -65610,7 +65733,7 @@
         <v>30</v>
       </c>
       <c r="I2165" s="4" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="2166" spans="1:9" x14ac:dyDescent="0.2">
@@ -65618,13 +65741,13 @@
         <v>2008</v>
       </c>
       <c r="C2166" s="4" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="D2166" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2166" s="4" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="F2166" s="4">
         <v>50</v>
@@ -65636,7 +65759,7 @@
         <v>500</v>
       </c>
       <c r="I2166" s="4" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="2167" spans="1:9" x14ac:dyDescent="0.2">
@@ -65644,13 +65767,13 @@
         <v>2008</v>
       </c>
       <c r="C2167" s="4" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="D2167" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2167" s="4" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="F2167" s="4">
         <v>250</v>
@@ -65662,7 +65785,7 @@
         <v>2500</v>
       </c>
       <c r="I2167" s="4" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="2168" spans="1:9" x14ac:dyDescent="0.2">
@@ -65670,13 +65793,13 @@
         <v>2008</v>
       </c>
       <c r="C2168" s="4" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="D2168" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2168" s="4" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="F2168" s="4">
         <v>41</v>
@@ -65688,7 +65811,7 @@
         <v>415</v>
       </c>
       <c r="I2168" s="4" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2169" spans="1:9" x14ac:dyDescent="0.2">
@@ -65696,13 +65819,13 @@
         <v>2008</v>
       </c>
       <c r="C2169" s="4" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="D2169" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2169" s="4" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="F2169" s="4">
         <v>150</v>
@@ -65714,7 +65837,7 @@
         <v>1500</v>
       </c>
       <c r="I2169" s="4" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="2170" spans="1:9" x14ac:dyDescent="0.2">
@@ -65722,13 +65845,13 @@
         <v>2008</v>
       </c>
       <c r="C2170" s="4" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="D2170" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2170" s="4" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="F2170" s="4">
         <v>12</v>
@@ -65740,7 +65863,7 @@
         <v>120</v>
       </c>
       <c r="I2170" s="4" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="2171" spans="1:9" x14ac:dyDescent="0.2">
@@ -65748,25 +65871,25 @@
         <v>2008</v>
       </c>
       <c r="C2171" s="4" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D2171" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2171" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="F2171" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2171" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2171" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2171" s="4" t="s">
         <v>3554</v>
-      </c>
-      <c r="F2171" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2171" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2171" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2171" s="4" t="s">
-        <v>3555</v>
       </c>
     </row>
     <row r="2172" spans="1:9" x14ac:dyDescent="0.2">
@@ -65774,13 +65897,13 @@
         <v>2008</v>
       </c>
       <c r="C2172" s="4" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D2172" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2172" s="4" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="F2172" s="4">
         <v>142</v>
@@ -65792,7 +65915,7 @@
         <v>1444</v>
       </c>
       <c r="I2172" s="4" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="2173" spans="1:9" x14ac:dyDescent="0.2">
@@ -65800,13 +65923,13 @@
         <v>2008</v>
       </c>
       <c r="C2173" s="4" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="D2173" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E2173" s="4" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="F2173" s="4">
         <v>4</v>
@@ -65818,7 +65941,7 @@
         <v>65</v>
       </c>
       <c r="I2173" s="4" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2174" spans="1:9" x14ac:dyDescent="0.2">
@@ -65832,7 +65955,7 @@
         <v>74</v>
       </c>
       <c r="E2174" s="4" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="F2174" s="4">
         <v>7200</v>
@@ -65844,7 +65967,7 @@
         <v>72227</v>
       </c>
       <c r="I2174" s="4" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="2175" spans="1:9" x14ac:dyDescent="0.2">
@@ -65858,7 +65981,7 @@
         <v>3036</v>
       </c>
       <c r="E2175" s="4" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="F2175" s="4">
         <v>8</v>
@@ -65870,7 +65993,7 @@
         <v>80</v>
       </c>
       <c r="I2175" s="4" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2176" spans="1:9" x14ac:dyDescent="0.2">
@@ -65884,7 +66007,7 @@
         <v>3036</v>
       </c>
       <c r="E2176" s="4" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="F2176" s="4">
         <v>25</v>
@@ -65896,7 +66019,7 @@
         <v>285</v>
       </c>
       <c r="I2176" s="4" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="2177" spans="1:9" x14ac:dyDescent="0.2">
@@ -65904,13 +66027,13 @@
         <v>2008</v>
       </c>
       <c r="C2177" s="4" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D2177" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2177" s="4" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="F2177" s="4">
         <v>42</v>
@@ -65922,7 +66045,7 @@
         <v>420</v>
       </c>
       <c r="I2177" s="4" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="2178" spans="1:9" x14ac:dyDescent="0.2">
@@ -65930,13 +66053,13 @@
         <v>2008</v>
       </c>
       <c r="C2178" s="4" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="D2178" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2178" s="4" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="F2178" s="4">
         <v>11</v>
@@ -65948,7 +66071,7 @@
         <v>115</v>
       </c>
       <c r="I2178" s="4" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="2179" spans="1:9" x14ac:dyDescent="0.2">
@@ -65956,13 +66079,13 @@
         <v>2008</v>
       </c>
       <c r="C2179" s="4" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="D2179" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2179" s="4" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="F2179" s="4">
         <v>242</v>
@@ -65974,7 +66097,7 @@
         <v>3003.28</v>
       </c>
       <c r="I2179" s="4" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2180" spans="1:9" x14ac:dyDescent="0.2">
@@ -65982,13 +66105,13 @@
         <v>2008</v>
       </c>
       <c r="C2180" s="4" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="D2180" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2180" s="4" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="F2180" s="4">
         <v>10</v>
@@ -66000,7 +66123,7 @@
         <v>0</v>
       </c>
       <c r="I2180" s="4" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="2181" spans="1:9" x14ac:dyDescent="0.2">
@@ -66008,13 +66131,13 @@
         <v>2008</v>
       </c>
       <c r="C2181" s="4" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="D2181" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2181" s="4" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F2181" s="4">
         <v>70</v>
@@ -66026,7 +66149,7 @@
         <v>700</v>
       </c>
       <c r="I2181" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="2182" spans="1:9" x14ac:dyDescent="0.2">
@@ -66034,13 +66157,13 @@
         <v>2008</v>
       </c>
       <c r="C2182" s="4" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="D2182" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2182" s="4" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="F2182" s="4">
         <v>74</v>
@@ -66052,7 +66175,7 @@
         <v>740</v>
       </c>
       <c r="I2182" s="4" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="2183" spans="1:9" x14ac:dyDescent="0.2">
@@ -66060,13 +66183,13 @@
         <v>2008</v>
       </c>
       <c r="C2183" s="4" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="D2183" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2183" s="4" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="F2183" s="4">
         <v>150</v>
@@ -66078,7 +66201,7 @@
         <v>1500</v>
       </c>
       <c r="I2183" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2184" spans="1:9" x14ac:dyDescent="0.2">
@@ -66086,13 +66209,13 @@
         <v>2008</v>
       </c>
       <c r="C2184" s="4" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="D2184" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2184" s="4" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="F2184" s="4">
         <v>28</v>
@@ -66104,7 +66227,7 @@
         <v>280</v>
       </c>
       <c r="I2184" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="2185" spans="1:9" x14ac:dyDescent="0.2">
@@ -66112,13 +66235,13 @@
         <v>2008</v>
       </c>
       <c r="C2185" s="4" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="D2185" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2185" s="4" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="F2185" s="4">
         <v>40</v>
@@ -66130,7 +66253,7 @@
         <v>270</v>
       </c>
       <c r="I2185" s="4" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2186" spans="1:9" x14ac:dyDescent="0.2">
@@ -66144,7 +66267,7 @@
         <v>3036</v>
       </c>
       <c r="E2186" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="F2186" s="4">
         <v>213</v>
@@ -66156,7 +66279,7 @@
         <v>2092</v>
       </c>
       <c r="I2186" s="4" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2187" spans="1:9" x14ac:dyDescent="0.2">
@@ -66170,7 +66293,7 @@
         <v>3036</v>
       </c>
       <c r="E2187" s="4" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="F2187" s="4">
         <v>100</v>
@@ -66182,7 +66305,7 @@
         <v>1000</v>
       </c>
       <c r="I2187" s="4" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="2188" spans="1:9" x14ac:dyDescent="0.2">
@@ -66196,7 +66319,7 @@
         <v>3036</v>
       </c>
       <c r="E2188" s="4" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="F2188" s="4">
         <v>20</v>
@@ -66208,7 +66331,7 @@
         <v>200</v>
       </c>
       <c r="I2188" s="4" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="2189" spans="1:9" x14ac:dyDescent="0.2">
@@ -66216,13 +66339,13 @@
         <v>2008</v>
       </c>
       <c r="C2189" s="4" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="D2189" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2189" s="4" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="F2189" s="4">
         <v>2</v>
@@ -66234,7 +66357,7 @@
         <v>20</v>
       </c>
       <c r="I2189" s="4" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="2190" spans="1:9" x14ac:dyDescent="0.2">
@@ -66242,13 +66365,13 @@
         <v>2008</v>
       </c>
       <c r="C2190" s="4" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="D2190" s="4" t="s">
         <v>3036</v>
       </c>
       <c r="E2190" s="4" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="F2190" s="4">
         <v>89</v>
@@ -66260,7 +66383,7 @@
         <v>1024.21</v>
       </c>
       <c r="I2190" s="4" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="2191" spans="1:9" x14ac:dyDescent="0.2">
@@ -66268,13 +66391,13 @@
         <v>2008</v>
       </c>
       <c r="C2191" s="4" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="D2191" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2191" s="4" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="F2191" s="4">
         <v>13</v>
@@ -66286,7 +66409,7 @@
         <v>145</v>
       </c>
       <c r="I2191" s="4" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="2192" spans="1:9" x14ac:dyDescent="0.2">
@@ -66294,13 +66417,13 @@
         <v>2008</v>
       </c>
       <c r="C2192" s="4" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="D2192" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2192" s="4" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="F2192" s="4">
         <v>1</v>
@@ -66312,7 +66435,7 @@
         <v>23</v>
       </c>
       <c r="I2192" s="4" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2193" spans="1:9" x14ac:dyDescent="0.2">
@@ -66326,7 +66449,7 @@
         <v>77</v>
       </c>
       <c r="E2193" s="4" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="F2193" s="4">
         <v>2</v>
@@ -66338,7 +66461,7 @@
         <v>20</v>
       </c>
       <c r="I2193" s="4" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2194" spans="1:9" x14ac:dyDescent="0.2">
@@ -66352,7 +66475,7 @@
         <v>77</v>
       </c>
       <c r="E2194" s="4" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="F2194" s="4">
         <v>5</v>
@@ -66364,7 +66487,7 @@
         <v>55</v>
       </c>
       <c r="I2194" s="4" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="2195" spans="1:9" x14ac:dyDescent="0.2">
@@ -66372,13 +66495,13 @@
         <v>2008</v>
       </c>
       <c r="C2195" s="4" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="D2195" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2195" s="4" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="F2195" s="4">
         <v>1</v>
@@ -66390,7 +66513,7 @@
         <v>20</v>
       </c>
       <c r="I2195" s="4" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2196" spans="1:9" x14ac:dyDescent="0.2">
@@ -66398,13 +66521,13 @@
         <v>2008</v>
       </c>
       <c r="C2196" s="4" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D2196" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2196" s="4" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="F2196" s="4">
         <v>2</v>
@@ -66416,7 +66539,7 @@
         <v>25</v>
       </c>
       <c r="I2196" s="4" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="2197" spans="1:9" x14ac:dyDescent="0.2">
@@ -66430,7 +66553,7 @@
         <v>77</v>
       </c>
       <c r="E2197" s="4" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="F2197" s="4">
         <v>9</v>
@@ -66442,7 +66565,7 @@
         <v>100</v>
       </c>
       <c r="I2197" s="4" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="2198" spans="1:9" x14ac:dyDescent="0.2">
@@ -66456,7 +66579,7 @@
         <v>77</v>
       </c>
       <c r="E2198" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="F2198" s="4">
         <v>10</v>
@@ -66468,7 +66591,7 @@
         <v>0</v>
       </c>
       <c r="I2198" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="2199" spans="1:9" x14ac:dyDescent="0.2">
@@ -66482,7 +66605,7 @@
         <v>77</v>
       </c>
       <c r="E2199" s="4" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="F2199" s="4">
         <v>3</v>
@@ -66494,7 +66617,7 @@
         <v>50</v>
       </c>
       <c r="I2199" s="4" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="2200" spans="1:9" x14ac:dyDescent="0.2">
@@ -66502,13 +66625,13 @@
         <v>2008</v>
       </c>
       <c r="C2200" s="4" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="D2200" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2200" s="4" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="F2200" s="4">
         <v>1</v>
@@ -66520,7 +66643,7 @@
         <v>18</v>
       </c>
       <c r="I2200" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="2201" spans="1:9" x14ac:dyDescent="0.2">
@@ -66534,7 +66657,7 @@
         <v>77</v>
       </c>
       <c r="E2201" s="4" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="F2201" s="4">
         <v>4</v>
@@ -66546,7 +66669,7 @@
         <v>50</v>
       </c>
       <c r="I2201" s="4" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="2202" spans="1:9" x14ac:dyDescent="0.2">
@@ -66554,13 +66677,13 @@
         <v>2008</v>
       </c>
       <c r="C2202" s="4" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="D2202" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2202" s="4" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="F2202" s="4">
         <v>0</v>
@@ -66572,7 +66695,7 @@
         <v>145</v>
       </c>
       <c r="I2202" s="4" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="2203" spans="1:9" x14ac:dyDescent="0.2">
@@ -66580,13 +66703,13 @@
         <v>2008</v>
       </c>
       <c r="C2203" s="4" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="D2203" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2203" s="4" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="F2203" s="4">
         <v>60</v>
@@ -66598,7 +66721,7 @@
         <v>600</v>
       </c>
       <c r="I2203" s="4" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2204" spans="1:9" x14ac:dyDescent="0.2">
@@ -66606,13 +66729,13 @@
         <v>2008</v>
       </c>
       <c r="C2204" s="4" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="D2204" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2204" s="4" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="F2204" s="4">
         <v>2</v>
@@ -66624,7 +66747,7 @@
         <v>20</v>
       </c>
       <c r="I2204" s="4" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2205" spans="1:9" x14ac:dyDescent="0.2">
@@ -66632,13 +66755,13 @@
         <v>2008</v>
       </c>
       <c r="C2205" s="4" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="D2205" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2205" s="4" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="F2205" s="4">
         <v>0</v>
@@ -66650,7 +66773,7 @@
         <v>380</v>
       </c>
       <c r="I2205" s="4" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="2206" spans="1:9" x14ac:dyDescent="0.2">
@@ -66658,13 +66781,13 @@
         <v>2008</v>
       </c>
       <c r="C2206" s="4" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="D2206" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2206" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2206" s="4">
         <v>1</v>
@@ -66676,7 +66799,7 @@
         <v>40</v>
       </c>
       <c r="I2206" s="4" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="2207" spans="1:9" x14ac:dyDescent="0.2">
@@ -66684,13 +66807,13 @@
         <v>2008</v>
       </c>
       <c r="C2207" s="4" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="D2207" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2207" s="4" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="F2207" s="4">
         <v>2</v>
@@ -66702,7 +66825,7 @@
         <v>25</v>
       </c>
       <c r="I2207" s="4" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="2208" spans="1:9" x14ac:dyDescent="0.2">
@@ -66710,13 +66833,13 @@
         <v>2008</v>
       </c>
       <c r="C2208" s="4" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="D2208" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2208" s="4" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="F2208" s="4">
         <v>2</v>
@@ -66728,7 +66851,7 @@
         <v>25</v>
       </c>
       <c r="I2208" s="4" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="2209" spans="1:9" x14ac:dyDescent="0.2">
@@ -66736,13 +66859,13 @@
         <v>2008</v>
       </c>
       <c r="C2209" s="4" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="D2209" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2209" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2209" s="4">
         <v>1</v>
@@ -66754,7 +66877,7 @@
         <v>13</v>
       </c>
       <c r="I2209" s="4" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="2210" spans="1:9" x14ac:dyDescent="0.2">
@@ -66762,13 +66885,13 @@
         <v>2008</v>
       </c>
       <c r="C2210" s="4" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="D2210" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2210" s="4" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="F2210" s="4">
         <v>4</v>
@@ -66780,7 +66903,7 @@
         <v>45</v>
       </c>
       <c r="I2210" s="4" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="2211" spans="1:9" x14ac:dyDescent="0.2">
@@ -66788,13 +66911,13 @@
         <v>2008</v>
       </c>
       <c r="C2211" s="4" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="D2211" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2211" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2211" s="4">
         <v>1</v>
@@ -66806,7 +66929,7 @@
         <v>13</v>
       </c>
       <c r="I2211" s="4" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="2212" spans="1:9" x14ac:dyDescent="0.2">
@@ -66814,13 +66937,13 @@
         <v>2008</v>
       </c>
       <c r="C2212" s="4" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="D2212" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2212" s="4" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="F2212" s="4">
         <v>2</v>
@@ -66832,7 +66955,7 @@
         <v>25</v>
       </c>
       <c r="I2212" s="4" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="2213" spans="1:9" x14ac:dyDescent="0.2">
@@ -66840,13 +66963,13 @@
         <v>2008</v>
       </c>
       <c r="C2213" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="D2213" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2213" s="4" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="F2213" s="4">
         <v>2</v>
@@ -66858,7 +66981,7 @@
         <v>25</v>
       </c>
       <c r="I2213" s="4" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="2214" spans="1:9" x14ac:dyDescent="0.2">
@@ -66866,13 +66989,13 @@
         <v>2008</v>
       </c>
       <c r="C2214" s="4" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="D2214" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2214" s="4" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="F2214" s="4">
         <v>3</v>
@@ -66884,7 +67007,7 @@
         <v>35</v>
       </c>
       <c r="I2214" s="4" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="2215" spans="1:9" x14ac:dyDescent="0.2">
@@ -66892,13 +67015,13 @@
         <v>2008</v>
       </c>
       <c r="C2215" s="4" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="D2215" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2215" s="4" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="F2215" s="4">
         <v>6</v>
@@ -66910,7 +67033,7 @@
         <v>70</v>
       </c>
       <c r="I2215" s="4" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="2216" spans="1:9" x14ac:dyDescent="0.2">
@@ -66918,13 +67041,13 @@
         <v>2008</v>
       </c>
       <c r="C2216" s="4" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="D2216" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2216" s="4" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="F2216" s="4">
         <v>1</v>
@@ -66936,7 +67059,7 @@
         <v>13</v>
       </c>
       <c r="I2216" s="4" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="2217" spans="1:9" x14ac:dyDescent="0.2">
@@ -66944,13 +67067,13 @@
         <v>2008</v>
       </c>
       <c r="C2217" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="D2217" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2217" s="4" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="F2217" s="4">
         <v>3</v>
@@ -66962,7 +67085,7 @@
         <v>35</v>
       </c>
       <c r="I2217" s="4" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="2218" spans="1:9" x14ac:dyDescent="0.2">
@@ -66970,13 +67093,13 @@
         <v>2008</v>
       </c>
       <c r="C2218" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D2218" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2218" s="4" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="F2218" s="4">
         <v>1</v>
@@ -66988,7 +67111,7 @@
         <v>13</v>
       </c>
       <c r="I2218" s="4" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="2219" spans="1:9" x14ac:dyDescent="0.2">
@@ -66996,13 +67119,13 @@
         <v>2008</v>
       </c>
       <c r="C2219" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D2219" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2219" s="4" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="F2219" s="4">
         <v>36</v>
@@ -67014,7 +67137,7 @@
         <v>370</v>
       </c>
       <c r="I2219" s="4" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="2220" spans="1:9" x14ac:dyDescent="0.2">
@@ -67022,13 +67145,13 @@
         <v>2008</v>
       </c>
       <c r="C2220" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D2220" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2220" s="4" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="F2220" s="4">
         <v>2</v>
@@ -67040,7 +67163,7 @@
         <v>25</v>
       </c>
       <c r="I2220" s="4" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="2221" spans="1:9" x14ac:dyDescent="0.2">
@@ -67048,13 +67171,13 @@
         <v>2008</v>
       </c>
       <c r="C2221" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="D2221" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2221" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2221" s="4">
         <v>1</v>
@@ -67066,7 +67189,7 @@
         <v>13</v>
       </c>
       <c r="I2221" s="4" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="2222" spans="1:9" x14ac:dyDescent="0.2">
@@ -67074,13 +67197,13 @@
         <v>2008</v>
       </c>
       <c r="C2222" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="D2222" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2222" s="4" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="F2222" s="4">
         <v>2</v>
@@ -67092,7 +67215,7 @@
         <v>25</v>
       </c>
       <c r="I2222" s="4" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="2223" spans="1:9" x14ac:dyDescent="0.2">
@@ -67100,13 +67223,13 @@
         <v>2008</v>
       </c>
       <c r="C2223" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="D2223" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2223" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2223" s="4">
         <v>1</v>
@@ -67118,7 +67241,7 @@
         <v>13</v>
       </c>
       <c r="I2223" s="4" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="2224" spans="1:9" x14ac:dyDescent="0.2">
@@ -67126,13 +67249,13 @@
         <v>2008</v>
       </c>
       <c r="C2224" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="D2224" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2224" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2224" s="4">
         <v>1</v>
@@ -67144,7 +67267,7 @@
         <v>13</v>
       </c>
       <c r="I2224" s="4" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="2225" spans="1:9" x14ac:dyDescent="0.2">
@@ -67152,13 +67275,13 @@
         <v>2008</v>
       </c>
       <c r="C2225" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="D2225" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2225" s="4" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="F2225" s="4">
         <v>2</v>
@@ -67170,7 +67293,7 @@
         <v>25</v>
       </c>
       <c r="I2225" s="4" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="2226" spans="1:9" x14ac:dyDescent="0.2">
@@ -67178,13 +67301,13 @@
         <v>2008</v>
       </c>
       <c r="C2226" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="D2226" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2226" s="4" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="F2226" s="4">
         <v>2</v>
@@ -67196,7 +67319,7 @@
         <v>50</v>
       </c>
       <c r="I2226" s="4" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="2227" spans="1:9" x14ac:dyDescent="0.2">
@@ -67204,13 +67327,13 @@
         <v>2008</v>
       </c>
       <c r="C2227" s="4" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="D2227" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2227" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2227" s="4">
         <v>1</v>
@@ -67222,7 +67345,7 @@
         <v>13</v>
       </c>
       <c r="I2227" s="4" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="2228" spans="1:9" x14ac:dyDescent="0.2">
@@ -67230,13 +67353,13 @@
         <v>2008</v>
       </c>
       <c r="C2228" s="4" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="D2228" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2228" s="4" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="F2228" s="4">
         <v>1</v>
@@ -67248,7 +67371,7 @@
         <v>38</v>
       </c>
       <c r="I2228" s="4" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="2229" spans="1:9" x14ac:dyDescent="0.2">
@@ -67256,13 +67379,13 @@
         <v>2008</v>
       </c>
       <c r="C2229" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="D2229" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2229" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2229" s="4">
         <v>1</v>
@@ -67274,7 +67397,7 @@
         <v>23</v>
       </c>
       <c r="I2229" s="4" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="2230" spans="1:9" x14ac:dyDescent="0.2">
@@ -67288,7 +67411,7 @@
         <v>77</v>
       </c>
       <c r="E2230" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2230" s="4">
         <v>1</v>
@@ -67300,7 +67423,7 @@
         <v>13</v>
       </c>
       <c r="I2230" s="4" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="2231" spans="1:9" x14ac:dyDescent="0.2">
@@ -67308,13 +67431,13 @@
         <v>2008</v>
       </c>
       <c r="C2231" s="4" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="D2231" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2231" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2231" s="4">
         <v>1</v>
@@ -67326,7 +67449,7 @@
         <v>33</v>
       </c>
       <c r="I2231" s="4" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="2232" spans="1:9" x14ac:dyDescent="0.2">
@@ -67334,13 +67457,13 @@
         <v>2008</v>
       </c>
       <c r="C2232" s="4" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="D2232" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2232" s="4" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="F2232" s="4">
         <v>4</v>
@@ -67352,7 +67475,7 @@
         <v>50</v>
       </c>
       <c r="I2232" s="4" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="2233" spans="1:9" x14ac:dyDescent="0.2">
@@ -67360,13 +67483,13 @@
         <v>2008</v>
       </c>
       <c r="C2233" s="4" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="D2233" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2233" s="4" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="F2233" s="4">
         <v>2</v>
@@ -67378,7 +67501,7 @@
         <v>25</v>
       </c>
       <c r="I2233" s="4" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="2234" spans="1:9" x14ac:dyDescent="0.2">
@@ -67386,13 +67509,13 @@
         <v>2008</v>
       </c>
       <c r="C2234" s="4" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="D2234" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2234" s="4" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="F2234" s="4">
         <v>4</v>
@@ -67404,7 +67527,7 @@
         <v>45</v>
       </c>
       <c r="I2234" s="4" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="2235" spans="1:9" x14ac:dyDescent="0.2">
@@ -67418,7 +67541,7 @@
         <v>77</v>
       </c>
       <c r="E2235" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2235" s="4">
         <v>1</v>
@@ -67430,7 +67553,7 @@
         <v>20</v>
       </c>
       <c r="I2235" s="4" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="2236" spans="1:9" x14ac:dyDescent="0.2">
@@ -67438,13 +67561,13 @@
         <v>2008</v>
       </c>
       <c r="C2236" s="4" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="D2236" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2236" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2236" s="4">
         <v>1</v>
@@ -67456,7 +67579,7 @@
         <v>20</v>
       </c>
       <c r="I2236" s="4" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="2237" spans="1:9" x14ac:dyDescent="0.2">
@@ -67464,13 +67587,13 @@
         <v>2008</v>
       </c>
       <c r="C2237" s="4" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="D2237" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2237" s="4" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="F2237" s="4">
         <v>1</v>
@@ -67482,7 +67605,7 @@
         <v>18</v>
       </c>
       <c r="I2237" s="4" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="2238" spans="1:9" x14ac:dyDescent="0.2">
@@ -67490,13 +67613,13 @@
         <v>2008</v>
       </c>
       <c r="C2238" s="4" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="D2238" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2238" s="4" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="F2238" s="4">
         <v>4</v>
@@ -67508,7 +67631,7 @@
         <v>65</v>
       </c>
       <c r="I2238" s="4" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="2239" spans="1:9" x14ac:dyDescent="0.2">
@@ -67516,13 +67639,13 @@
         <v>2008</v>
       </c>
       <c r="C2239" s="4" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="D2239" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2239" s="4" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="F2239" s="4">
         <v>3</v>
@@ -67534,7 +67657,7 @@
         <v>35</v>
       </c>
       <c r="I2239" s="4" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="2240" spans="1:9" x14ac:dyDescent="0.2">
@@ -67548,7 +67671,7 @@
         <v>77</v>
       </c>
       <c r="E2240" s="4" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="F2240" s="4">
         <v>5</v>
@@ -67560,7 +67683,7 @@
         <v>155</v>
       </c>
       <c r="I2240" s="4" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="2241" spans="1:9" x14ac:dyDescent="0.2">
@@ -67574,7 +67697,7 @@
         <v>77</v>
       </c>
       <c r="E2241" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2241" s="4">
         <v>1</v>
@@ -67586,7 +67709,7 @@
         <v>13</v>
       </c>
       <c r="I2241" s="4" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="2242" spans="1:9" x14ac:dyDescent="0.2">
@@ -67600,7 +67723,7 @@
         <v>77</v>
       </c>
       <c r="E2242" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2242" s="4">
         <v>1</v>
@@ -67612,7 +67735,7 @@
         <v>13</v>
       </c>
       <c r="I2242" s="4" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="2243" spans="1:9" x14ac:dyDescent="0.2">
@@ -67620,13 +67743,13 @@
         <v>2008</v>
       </c>
       <c r="C2243" s="4" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="D2243" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2243" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2243" s="4">
         <v>1</v>
@@ -67638,7 +67761,7 @@
         <v>13</v>
       </c>
       <c r="I2243" s="4" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="2244" spans="1:9" x14ac:dyDescent="0.2">
@@ -67646,13 +67769,13 @@
         <v>2008</v>
       </c>
       <c r="C2244" s="4" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="D2244" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2244" s="4" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="F2244" s="4">
         <v>3</v>
@@ -67664,7 +67787,7 @@
         <v>50</v>
       </c>
       <c r="I2244" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2245" spans="1:9" x14ac:dyDescent="0.2">
@@ -67678,7 +67801,7 @@
         <v>77</v>
       </c>
       <c r="E2245" s="4" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="F2245" s="4">
         <v>0</v>
@@ -67690,7 +67813,7 @@
         <v>38</v>
       </c>
       <c r="I2245" s="4" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="2246" spans="1:9" x14ac:dyDescent="0.2">
@@ -67704,7 +67827,7 @@
         <v>77</v>
       </c>
       <c r="E2246" s="4" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="F2246" s="4">
         <v>4</v>
@@ -67716,7 +67839,7 @@
         <v>45</v>
       </c>
       <c r="I2246" s="4" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="2247" spans="1:9" x14ac:dyDescent="0.2">
@@ -67724,13 +67847,13 @@
         <v>2008</v>
       </c>
       <c r="C2247" s="4" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="D2247" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2247" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2247" s="4">
         <v>1</v>
@@ -67742,7 +67865,7 @@
         <v>13</v>
       </c>
       <c r="I2247" s="4" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="2248" spans="1:9" x14ac:dyDescent="0.2">
@@ -67750,13 +67873,13 @@
         <v>2008</v>
       </c>
       <c r="C2248" s="4" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="D2248" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2248" s="4" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="F2248" s="4">
         <v>2</v>
@@ -67768,7 +67891,7 @@
         <v>25</v>
       </c>
       <c r="I2248" s="4" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="2249" spans="1:9" x14ac:dyDescent="0.2">
@@ -67776,13 +67899,13 @@
         <v>2008</v>
       </c>
       <c r="C2249" s="4" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="D2249" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2249" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2249" s="4">
         <v>1</v>
@@ -67794,7 +67917,7 @@
         <v>33</v>
       </c>
       <c r="I2249" s="4" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="2250" spans="1:9" x14ac:dyDescent="0.2">
@@ -67802,13 +67925,13 @@
         <v>2008</v>
       </c>
       <c r="C2250" s="4" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="D2250" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2250" s="4" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="F2250" s="4">
         <v>12</v>
@@ -67820,7 +67943,7 @@
         <v>130</v>
       </c>
       <c r="I2250" s="4" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="2251" spans="1:9" x14ac:dyDescent="0.2">
@@ -67828,13 +67951,13 @@
         <v>2008</v>
       </c>
       <c r="C2251" s="4" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="D2251" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2251" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2251" s="4">
         <v>1</v>
@@ -67846,7 +67969,7 @@
         <v>13</v>
       </c>
       <c r="I2251" s="4" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="2252" spans="1:9" x14ac:dyDescent="0.2">
@@ -67854,13 +67977,13 @@
         <v>2008</v>
       </c>
       <c r="C2252" s="4" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="D2252" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2252" s="4" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="F2252" s="4">
         <v>2</v>
@@ -67872,7 +67995,7 @@
         <v>25</v>
       </c>
       <c r="I2252" s="4" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="2253" spans="1:9" x14ac:dyDescent="0.2">
@@ -67880,13 +68003,13 @@
         <v>2008</v>
       </c>
       <c r="C2253" s="4" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="D2253" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2253" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2253" s="4">
         <v>1</v>
@@ -67898,7 +68021,7 @@
         <v>33</v>
       </c>
       <c r="I2253" s="4" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="2254" spans="1:9" x14ac:dyDescent="0.2">
@@ -67906,13 +68029,13 @@
         <v>2008</v>
       </c>
       <c r="C2254" s="4" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="D2254" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2254" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2254" s="4">
         <v>2</v>
@@ -67924,7 +68047,7 @@
         <v>25</v>
       </c>
       <c r="I2254" s="4" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="2255" spans="1:9" x14ac:dyDescent="0.2">
@@ -67932,13 +68055,13 @@
         <v>2008</v>
       </c>
       <c r="C2255" s="4" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="D2255" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2255" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2255" s="4">
         <v>1</v>
@@ -67950,7 +68073,7 @@
         <v>13</v>
       </c>
       <c r="I2255" s="4" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2256" spans="1:9" x14ac:dyDescent="0.2">
@@ -67958,13 +68081,13 @@
         <v>2008</v>
       </c>
       <c r="C2256" s="4" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="D2256" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2256" s="4" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="F2256" s="4">
         <v>3</v>
@@ -67976,7 +68099,7 @@
         <v>35</v>
       </c>
       <c r="I2256" s="4" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2257" spans="1:9" x14ac:dyDescent="0.2">
@@ -67984,13 +68107,13 @@
         <v>2008</v>
       </c>
       <c r="C2257" s="4" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="D2257" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2257" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2257" s="4">
         <v>2</v>
@@ -68002,7 +68125,7 @@
         <v>25</v>
       </c>
       <c r="I2257" s="4" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2258" spans="1:9" x14ac:dyDescent="0.2">
@@ -68010,13 +68133,13 @@
         <v>2008</v>
       </c>
       <c r="C2258" s="4" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="D2258" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2258" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2258" s="4">
         <v>2</v>
@@ -68028,7 +68151,7 @@
         <v>25</v>
       </c>
       <c r="I2258" s="4" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2259" spans="1:9" x14ac:dyDescent="0.2">
@@ -68036,13 +68159,13 @@
         <v>2008</v>
       </c>
       <c r="C2259" s="4" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="D2259" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2259" s="4" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="F2259" s="4">
         <v>2</v>
@@ -68054,7 +68177,7 @@
         <v>30</v>
       </c>
       <c r="I2259" s="4" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2260" spans="1:9" x14ac:dyDescent="0.2">
@@ -68062,13 +68185,13 @@
         <v>2008</v>
       </c>
       <c r="C2260" s="4" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="D2260" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2260" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2260" s="4">
         <v>1</v>
@@ -68080,7 +68203,7 @@
         <v>20</v>
       </c>
       <c r="I2260" s="4" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2261" spans="1:9" x14ac:dyDescent="0.2">
@@ -68088,13 +68211,13 @@
         <v>2008</v>
       </c>
       <c r="C2261" s="4" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="D2261" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2261" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2261" s="4">
         <v>1</v>
@@ -68106,7 +68229,7 @@
         <v>13</v>
       </c>
       <c r="I2261" s="4" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2262" spans="1:9" x14ac:dyDescent="0.2">
@@ -68114,13 +68237,13 @@
         <v>2008</v>
       </c>
       <c r="C2262" s="4" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="D2262" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2262" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2262" s="4">
         <v>1</v>
@@ -68132,7 +68255,7 @@
         <v>13</v>
       </c>
       <c r="I2262" s="4" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2263" spans="1:9" x14ac:dyDescent="0.2">
@@ -68140,13 +68263,13 @@
         <v>2008</v>
       </c>
       <c r="C2263" s="4" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="D2263" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2263" s="4" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="F2263" s="4">
         <v>2</v>
@@ -68158,7 +68281,7 @@
         <v>30</v>
       </c>
       <c r="I2263" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2264" spans="1:9" x14ac:dyDescent="0.2">
@@ -68166,13 +68289,13 @@
         <v>2008</v>
       </c>
       <c r="C2264" s="4" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="D2264" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2264" s="4" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="F2264" s="4">
         <v>2</v>
@@ -68184,7 +68307,7 @@
         <v>25</v>
       </c>
       <c r="I2264" s="4" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="2265" spans="1:9" x14ac:dyDescent="0.2">
@@ -68192,13 +68315,13 @@
         <v>2008</v>
       </c>
       <c r="C2265" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="D2265" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2265" s="4" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="F2265" s="4">
         <v>3</v>
@@ -68210,7 +68333,7 @@
         <v>35</v>
       </c>
       <c r="I2265" s="4" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="2266" spans="1:9" x14ac:dyDescent="0.2">
@@ -68218,13 +68341,13 @@
         <v>2008</v>
       </c>
       <c r="C2266" s="4" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="D2266" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2266" s="4" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="F2266" s="4">
         <v>3</v>
@@ -68236,7 +68359,7 @@
         <v>35</v>
       </c>
       <c r="I2266" s="4" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="2267" spans="1:9" x14ac:dyDescent="0.2">
@@ -68244,13 +68367,13 @@
         <v>2008</v>
       </c>
       <c r="C2267" s="4" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="D2267" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2267" s="4" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="F2267" s="4">
         <v>4</v>
@@ -68262,7 +68385,7 @@
         <v>55</v>
       </c>
       <c r="I2267" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2268" spans="1:9" x14ac:dyDescent="0.2">
@@ -68270,13 +68393,13 @@
         <v>2008</v>
       </c>
       <c r="C2268" s="4" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="D2268" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2268" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2268" s="4">
         <v>1</v>
@@ -68288,7 +68411,7 @@
         <v>13</v>
       </c>
       <c r="I2268" s="4" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="2269" spans="1:9" x14ac:dyDescent="0.2">
@@ -68296,13 +68419,13 @@
         <v>2008</v>
       </c>
       <c r="C2269" s="4" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="D2269" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2269" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2269" s="4">
         <v>1</v>
@@ -68314,7 +68437,7 @@
         <v>13</v>
       </c>
       <c r="I2269" s="4" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="2270" spans="1:9" x14ac:dyDescent="0.2">
@@ -68322,13 +68445,13 @@
         <v>2008</v>
       </c>
       <c r="C2270" s="4" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="D2270" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2270" s="4" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="F2270" s="4">
         <v>2</v>
@@ -68340,7 +68463,7 @@
         <v>30</v>
       </c>
       <c r="I2270" s="4" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="2271" spans="1:9" x14ac:dyDescent="0.2">
@@ -68348,13 +68471,13 @@
         <v>2008</v>
       </c>
       <c r="C2271" s="4" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="D2271" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2271" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2271" s="4">
         <v>1</v>
@@ -68366,7 +68489,7 @@
         <v>13</v>
       </c>
       <c r="I2271" s="4" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="2272" spans="1:9" x14ac:dyDescent="0.2">
@@ -68374,13 +68497,13 @@
         <v>2008</v>
       </c>
       <c r="C2272" s="4" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="D2272" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2272" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2272" s="4">
         <v>1</v>
@@ -68392,7 +68515,7 @@
         <v>33</v>
       </c>
       <c r="I2272" s="4" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="2273" spans="1:9" x14ac:dyDescent="0.2">
@@ -68400,13 +68523,13 @@
         <v>2008</v>
       </c>
       <c r="C2273" s="4" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="D2273" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2273" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2273" s="4">
         <v>1</v>
@@ -68418,7 +68541,7 @@
         <v>13</v>
       </c>
       <c r="I2273" s="4" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="2274" spans="1:9" x14ac:dyDescent="0.2">
@@ -68426,13 +68549,13 @@
         <v>2008</v>
       </c>
       <c r="C2274" s="4" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="D2274" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2274" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2274" s="4">
         <v>1</v>
@@ -68444,7 +68567,7 @@
         <v>20</v>
       </c>
       <c r="I2274" s="4" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="2275" spans="1:9" x14ac:dyDescent="0.2">
@@ -68452,13 +68575,13 @@
         <v>2008</v>
       </c>
       <c r="C2275" s="4" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="D2275" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2275" s="4" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="F2275" s="4">
         <v>3</v>
@@ -68470,7 +68593,7 @@
         <v>60</v>
       </c>
       <c r="I2275" s="4" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="2276" spans="1:9" x14ac:dyDescent="0.2">
@@ -68478,13 +68601,13 @@
         <v>2008</v>
       </c>
       <c r="C2276" s="4" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="D2276" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2276" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2276" s="4">
         <v>2</v>
@@ -68496,7 +68619,7 @@
         <v>25</v>
       </c>
       <c r="I2276" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2277" spans="1:9" x14ac:dyDescent="0.2">
@@ -68504,13 +68627,13 @@
         <v>2008</v>
       </c>
       <c r="C2277" s="4" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="D2277" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2277" s="4" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="F2277" s="4">
         <v>2</v>
@@ -68522,7 +68645,7 @@
         <v>30</v>
       </c>
       <c r="I2277" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2278" spans="1:9" x14ac:dyDescent="0.2">
@@ -68530,13 +68653,13 @@
         <v>2008</v>
       </c>
       <c r="C2278" s="4" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="D2278" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2278" s="4" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="F2278" s="4">
         <v>4</v>
@@ -68548,7 +68671,7 @@
         <v>45</v>
       </c>
       <c r="I2278" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2279" spans="1:9" x14ac:dyDescent="0.2">
@@ -68556,13 +68679,13 @@
         <v>2008</v>
       </c>
       <c r="C2279" s="4" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="D2279" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2279" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2279" s="4">
         <v>1</v>
@@ -68574,7 +68697,7 @@
         <v>13</v>
       </c>
       <c r="I2279" s="4" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2280" spans="1:9" x14ac:dyDescent="0.2">
@@ -68582,13 +68705,13 @@
         <v>2008</v>
       </c>
       <c r="C2280" s="4" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="D2280" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2280" s="4" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="F2280" s="4">
         <v>2</v>
@@ -68600,7 +68723,7 @@
         <v>30</v>
       </c>
       <c r="I2280" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2281" spans="1:9" x14ac:dyDescent="0.2">
@@ -68608,13 +68731,13 @@
         <v>2008</v>
       </c>
       <c r="C2281" s="4" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="D2281" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2281" s="4" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="F2281" s="4">
         <v>2</v>
@@ -68626,7 +68749,7 @@
         <v>30</v>
       </c>
       <c r="I2281" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2282" spans="1:9" x14ac:dyDescent="0.2">
@@ -68634,13 +68757,13 @@
         <v>2008</v>
       </c>
       <c r="C2282" s="4" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="D2282" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2282" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2282" s="4">
         <v>1</v>
@@ -68652,7 +68775,7 @@
         <v>15</v>
       </c>
       <c r="I2282" s="4" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2283" spans="1:9" x14ac:dyDescent="0.2">
@@ -68660,13 +68783,13 @@
         <v>2008</v>
       </c>
       <c r="C2283" s="4" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="D2283" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2283" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2283" s="4">
         <v>1</v>
@@ -68678,7 +68801,7 @@
         <v>20</v>
       </c>
       <c r="I2283" s="4" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="2284" spans="1:9" x14ac:dyDescent="0.2">
@@ -68686,13 +68809,13 @@
         <v>2008</v>
       </c>
       <c r="C2284" s="4" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="D2284" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2284" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2284" s="4">
         <v>1</v>
@@ -68704,7 +68827,7 @@
         <v>13</v>
       </c>
       <c r="I2284" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2285" spans="1:9" x14ac:dyDescent="0.2">
@@ -68712,13 +68835,13 @@
         <v>2008</v>
       </c>
       <c r="C2285" s="4" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="D2285" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2285" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2285" s="4">
         <v>1</v>
@@ -68730,7 +68853,7 @@
         <v>13</v>
       </c>
       <c r="I2285" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2286" spans="1:9" x14ac:dyDescent="0.2">
@@ -68738,13 +68861,13 @@
         <v>2008</v>
       </c>
       <c r="C2286" s="4" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="D2286" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2286" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2286" s="4">
         <v>1</v>
@@ -68756,7 +68879,7 @@
         <v>13</v>
       </c>
       <c r="I2286" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2287" spans="1:9" x14ac:dyDescent="0.2">
@@ -68764,13 +68887,13 @@
         <v>2008</v>
       </c>
       <c r="C2287" s="4" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="D2287" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2287" s="4" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="F2287" s="4">
         <v>2</v>
@@ -68782,7 +68905,7 @@
         <v>25</v>
       </c>
       <c r="I2287" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2288" spans="1:9" x14ac:dyDescent="0.2">
@@ -68790,13 +68913,13 @@
         <v>2008</v>
       </c>
       <c r="C2288" s="4" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="D2288" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2288" s="4" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="F2288" s="4">
         <v>3</v>
@@ -68808,7 +68931,7 @@
         <v>35</v>
       </c>
       <c r="I2288" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2289" spans="1:9" x14ac:dyDescent="0.2">
@@ -68816,13 +68939,13 @@
         <v>2008</v>
       </c>
       <c r="C2289" s="4" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="D2289" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2289" s="4" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="F2289" s="4">
         <v>2</v>
@@ -68834,7 +68957,7 @@
         <v>30</v>
       </c>
       <c r="I2289" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2290" spans="1:9" x14ac:dyDescent="0.2">
@@ -68842,13 +68965,13 @@
         <v>2008</v>
       </c>
       <c r="C2290" s="4" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="D2290" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2290" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2290" s="4">
         <v>2</v>
@@ -68860,7 +68983,7 @@
         <v>25</v>
       </c>
       <c r="I2290" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2291" spans="1:9" x14ac:dyDescent="0.2">
@@ -68868,13 +68991,13 @@
         <v>2008</v>
       </c>
       <c r="C2291" s="4" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="D2291" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2291" s="4" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="F2291" s="4">
         <v>2</v>
@@ -68886,7 +69009,7 @@
         <v>30</v>
       </c>
       <c r="I2291" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2292" spans="1:9" x14ac:dyDescent="0.2">
@@ -68894,13 +69017,13 @@
         <v>2008</v>
       </c>
       <c r="C2292" s="4" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="D2292" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2292" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2292" s="4">
         <v>1</v>
@@ -68912,7 +69035,7 @@
         <v>33</v>
       </c>
       <c r="I2292" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2293" spans="1:9" x14ac:dyDescent="0.2">
@@ -68920,13 +69043,13 @@
         <v>2008</v>
       </c>
       <c r="C2293" s="4" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="D2293" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2293" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2293" s="4">
         <v>2</v>
@@ -68938,7 +69061,7 @@
         <v>25</v>
       </c>
       <c r="I2293" s="4" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="2294" spans="1:9" x14ac:dyDescent="0.2">
@@ -68946,13 +69069,13 @@
         <v>2008</v>
       </c>
       <c r="C2294" s="4" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="D2294" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2294" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2294" s="4">
         <v>2</v>
@@ -68964,7 +69087,7 @@
         <v>30</v>
       </c>
       <c r="I2294" s="4" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="2295" spans="1:9" x14ac:dyDescent="0.2">
@@ -68972,13 +69095,13 @@
         <v>2008</v>
       </c>
       <c r="C2295" s="4" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="D2295" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2295" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2295" s="4">
         <v>2</v>
@@ -68990,7 +69113,7 @@
         <v>45</v>
       </c>
       <c r="I2295" s="4" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2296" spans="1:9" x14ac:dyDescent="0.2">
@@ -68998,13 +69121,13 @@
         <v>2008</v>
       </c>
       <c r="C2296" s="4" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="D2296" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2296" s="4" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="F2296" s="4">
         <v>2</v>
@@ -69016,7 +69139,7 @@
         <v>30</v>
       </c>
       <c r="I2296" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2297" spans="1:9" x14ac:dyDescent="0.2">
@@ -69024,13 +69147,13 @@
         <v>2008</v>
       </c>
       <c r="C2297" s="4" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="D2297" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2297" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2297" s="4">
         <v>1</v>
@@ -69042,7 +69165,7 @@
         <v>13</v>
       </c>
       <c r="I2297" s="4" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2298" spans="1:9" x14ac:dyDescent="0.2">
@@ -69050,13 +69173,13 @@
         <v>2008</v>
       </c>
       <c r="C2298" s="4" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="D2298" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2298" s="4" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="F2298" s="4">
         <v>3</v>
@@ -69068,7 +69191,7 @@
         <v>40</v>
       </c>
       <c r="I2298" s="4" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2299" spans="1:9" x14ac:dyDescent="0.2">
@@ -69076,13 +69199,13 @@
         <v>2008</v>
       </c>
       <c r="C2299" s="4" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="D2299" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2299" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2299" s="4">
         <v>2</v>
@@ -69094,7 +69217,7 @@
         <v>25</v>
       </c>
       <c r="I2299" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2300" spans="1:9" x14ac:dyDescent="0.2">
@@ -69102,13 +69225,13 @@
         <v>2008</v>
       </c>
       <c r="C2300" s="4" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="D2300" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2300" s="4" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F2300" s="4">
         <v>3</v>
@@ -69120,7 +69243,7 @@
         <v>40</v>
       </c>
       <c r="I2300" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2301" spans="1:9" x14ac:dyDescent="0.2">
@@ -69128,13 +69251,13 @@
         <v>2008</v>
       </c>
       <c r="C2301" s="4" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="D2301" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2301" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2301" s="4">
         <v>1</v>
@@ -69146,7 +69269,7 @@
         <v>13</v>
       </c>
       <c r="I2301" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2302" spans="1:9" x14ac:dyDescent="0.2">
@@ -69154,13 +69277,13 @@
         <v>2008</v>
       </c>
       <c r="C2302" s="4" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="D2302" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2302" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2302" s="4">
         <v>2</v>
@@ -69172,7 +69295,7 @@
         <v>25</v>
       </c>
       <c r="I2302" s="4" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2303" spans="1:9" x14ac:dyDescent="0.2">
@@ -69180,13 +69303,13 @@
         <v>2008</v>
       </c>
       <c r="C2303" s="4" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="D2303" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2303" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2303" s="4">
         <v>1</v>
@@ -69198,7 +69321,7 @@
         <v>33</v>
       </c>
       <c r="I2303" s="4" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="2304" spans="1:9" x14ac:dyDescent="0.2">
@@ -69206,13 +69329,13 @@
         <v>2008</v>
       </c>
       <c r="C2304" s="4" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="D2304" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2304" s="4" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="F2304" s="4">
         <v>2</v>
@@ -69224,7 +69347,7 @@
         <v>30</v>
       </c>
       <c r="I2304" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2305" spans="1:9" x14ac:dyDescent="0.2">
@@ -69232,13 +69355,13 @@
         <v>2008</v>
       </c>
       <c r="C2305" s="4" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="D2305" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2305" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2305" s="4">
         <v>1</v>
@@ -69250,7 +69373,7 @@
         <v>13</v>
       </c>
       <c r="I2305" s="4" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2306" spans="1:9" x14ac:dyDescent="0.2">
@@ -69264,7 +69387,7 @@
         <v>77</v>
       </c>
       <c r="E2306" s="4" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="F2306" s="4">
         <v>5</v>
@@ -69276,7 +69399,7 @@
         <v>65</v>
       </c>
       <c r="I2306" s="4" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="2307" spans="1:9" x14ac:dyDescent="0.2">
@@ -69284,13 +69407,13 @@
         <v>2008</v>
       </c>
       <c r="C2307" s="4" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="D2307" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2307" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2307" s="4">
         <v>1</v>
@@ -69302,7 +69425,7 @@
         <v>13</v>
       </c>
       <c r="I2307" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2308" spans="1:9" x14ac:dyDescent="0.2">
@@ -69310,13 +69433,13 @@
         <v>2008</v>
       </c>
       <c r="C2308" s="4" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="D2308" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2308" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2308" s="4">
         <v>1</v>
@@ -69328,7 +69451,7 @@
         <v>23</v>
       </c>
       <c r="I2308" s="4" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="2309" spans="1:9" x14ac:dyDescent="0.2">
@@ -69336,13 +69459,13 @@
         <v>2008</v>
       </c>
       <c r="C2309" s="4" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="D2309" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2309" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2309" s="4">
         <v>1</v>
@@ -69354,7 +69477,7 @@
         <v>23</v>
       </c>
       <c r="I2309" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2310" spans="1:9" x14ac:dyDescent="0.2">
@@ -69368,7 +69491,7 @@
         <v>77</v>
       </c>
       <c r="E2310" s="4" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="F2310" s="4">
         <v>3</v>
@@ -69380,7 +69503,7 @@
         <v>35</v>
       </c>
       <c r="I2310" s="4" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2311" spans="1:9" x14ac:dyDescent="0.2">
@@ -69388,13 +69511,13 @@
         <v>2008</v>
       </c>
       <c r="C2311" s="4" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="D2311" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2311" s="4" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="F2311" s="4">
         <v>2</v>
@@ -69406,7 +69529,7 @@
         <v>25</v>
       </c>
       <c r="I2311" s="4" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="2312" spans="1:9" x14ac:dyDescent="0.2">
@@ -69414,13 +69537,13 @@
         <v>2008</v>
       </c>
       <c r="C2312" s="4" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="D2312" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2312" s="4" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F2312" s="4">
         <v>1</v>
@@ -69432,7 +69555,7 @@
         <v>13</v>
       </c>
       <c r="I2312" s="4" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="2313" spans="1:9" x14ac:dyDescent="0.2">
@@ -69440,13 +69563,13 @@
         <v>2008</v>
       </c>
       <c r="C2313" s="4" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="D2313" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2313" s="4" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="F2313" s="4">
         <v>7</v>
@@ -69458,7 +69581,7 @@
         <v>85</v>
       </c>
       <c r="I2313" s="4" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="2314" spans="1:9" x14ac:dyDescent="0.2">
@@ -69466,13 +69589,13 @@
         <v>2008</v>
       </c>
       <c r="C2314" s="4" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="D2314" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2314" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2314" s="4">
         <v>1</v>
@@ -69484,7 +69607,7 @@
         <v>13</v>
       </c>
       <c r="I2314" s="4" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="2315" spans="1:9" x14ac:dyDescent="0.2">
@@ -69492,13 +69615,13 @@
         <v>2008</v>
       </c>
       <c r="C2315" s="4" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="D2315" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2315" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2315" s="4">
         <v>1</v>
@@ -69510,7 +69633,7 @@
         <v>13</v>
       </c>
       <c r="I2315" s="4" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="2316" spans="1:9" x14ac:dyDescent="0.2">
@@ -69518,13 +69641,13 @@
         <v>2008</v>
       </c>
       <c r="C2316" s="4" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="D2316" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E2316" s="4" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="F2316" s="4">
         <v>1</v>
@@ -69536,7 +69659,7 @@
         <v>13</v>
       </c>
       <c r="I2316" s="4" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="2317" spans="1:9" x14ac:dyDescent="0.2">
@@ -69544,13 +69667,13 @@
         <v>2008</v>
       </c>
       <c r="C2317" s="4" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="D2317" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2317" s="4" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="F2317" s="4">
         <v>150</v>
@@ -69562,7 +69685,7 @@
         <v>0</v>
       </c>
       <c r="I2317" s="4" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="2318" spans="1:9" x14ac:dyDescent="0.2">
@@ -69576,7 +69699,7 @@
         <v>460</v>
       </c>
       <c r="E2318" s="4" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="F2318" s="4">
         <v>3</v>
@@ -69588,7 +69711,7 @@
         <v>0</v>
       </c>
       <c r="I2318" s="4" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="2319" spans="1:9" x14ac:dyDescent="0.2">
@@ -69602,19 +69725,19 @@
         <v>460</v>
       </c>
       <c r="E2319" s="4" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F2319" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2319" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2319" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2319" s="4" t="s">
         <v>3845</v>
-      </c>
-      <c r="F2319" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2319" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2319" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2319" s="4" t="s">
-        <v>3846</v>
       </c>
     </row>
     <row r="2320" spans="1:9" x14ac:dyDescent="0.2">
@@ -69622,13 +69745,13 @@
         <v>2008</v>
       </c>
       <c r="C2320" s="4" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="D2320" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2320" s="4" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="F2320" s="4">
         <v>4</v>
@@ -69640,7 +69763,7 @@
         <v>0</v>
       </c>
       <c r="I2320" s="4" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="2321" spans="1:9" x14ac:dyDescent="0.2">
@@ -69648,13 +69771,13 @@
         <v>2008</v>
       </c>
       <c r="C2321" s="4" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="D2321" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2321" s="4" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="F2321" s="4">
         <v>36</v>
@@ -69666,7 +69789,7 @@
         <v>0</v>
       </c>
       <c r="I2321" s="4" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2322" spans="1:9" x14ac:dyDescent="0.2">
@@ -69674,13 +69797,13 @@
         <v>2008</v>
       </c>
       <c r="C2322" s="4" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="D2322" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2322" s="4" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="F2322" s="4">
         <v>1</v>
@@ -69692,7 +69815,7 @@
         <v>0</v>
       </c>
       <c r="I2322" s="4" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2323" spans="1:9" x14ac:dyDescent="0.2">
@@ -69700,13 +69823,13 @@
         <v>2008</v>
       </c>
       <c r="C2323" s="4" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="D2323" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2323" s="4" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="F2323" s="4">
         <v>10</v>
@@ -69718,7 +69841,7 @@
         <v>0</v>
       </c>
       <c r="I2323" s="4" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="2324" spans="1:9" x14ac:dyDescent="0.2">
@@ -69726,13 +69849,13 @@
         <v>2008</v>
       </c>
       <c r="C2324" s="4" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="D2324" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2324" s="4" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="F2324" s="4">
         <v>20</v>
@@ -69744,7 +69867,7 @@
         <v>0</v>
       </c>
       <c r="I2324" s="4" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="2325" spans="1:9" x14ac:dyDescent="0.2">
@@ -69752,13 +69875,13 @@
         <v>2008</v>
       </c>
       <c r="C2325" s="4" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="D2325" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2325" s="4" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="F2325" s="4">
         <v>15</v>
@@ -69770,7 +69893,7 @@
         <v>0</v>
       </c>
       <c r="I2325" s="4" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="2326" spans="1:9" x14ac:dyDescent="0.2">
@@ -69778,13 +69901,13 @@
         <v>2008</v>
       </c>
       <c r="C2326" s="4" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="D2326" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2326" s="4" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="F2326" s="4">
         <v>3</v>
@@ -69796,7 +69919,7 @@
         <v>0</v>
       </c>
       <c r="I2326" s="4" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="2327" spans="1:9" x14ac:dyDescent="0.2">
@@ -69810,7 +69933,7 @@
         <v>460</v>
       </c>
       <c r="E2327" s="4" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="F2327" s="4">
         <v>8</v>
@@ -69822,7 +69945,7 @@
         <v>0</v>
       </c>
       <c r="I2327" s="4" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="2328" spans="1:9" x14ac:dyDescent="0.2">
@@ -69830,25 +69953,25 @@
         <v>2008</v>
       </c>
       <c r="C2328" s="4" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="D2328" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2328" s="4" t="s">
+        <v>3861</v>
+      </c>
+      <c r="F2328" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2328" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2328" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2328" s="4" t="s">
         <v>3862</v>
-      </c>
-      <c r="F2328" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2328" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2328" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2328" s="4" t="s">
-        <v>3863</v>
       </c>
     </row>
     <row r="2329" spans="1:9" x14ac:dyDescent="0.2">
@@ -69856,13 +69979,13 @@
         <v>2008</v>
       </c>
       <c r="C2329" s="4" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="D2329" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2329" s="4" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="F2329" s="4">
         <v>2</v>
@@ -69874,7 +69997,7 @@
         <v>0</v>
       </c>
       <c r="I2329" s="4" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="2330" spans="1:9" x14ac:dyDescent="0.2">
@@ -69882,13 +70005,13 @@
         <v>2008</v>
       </c>
       <c r="C2330" s="4" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="D2330" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2330" s="4" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="F2330" s="4">
         <v>18</v>
@@ -69900,7 +70023,7 @@
         <v>0</v>
       </c>
       <c r="I2330" s="4" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="2331" spans="1:9" x14ac:dyDescent="0.2">
@@ -69908,13 +70031,13 @@
         <v>2008</v>
       </c>
       <c r="C2331" s="4" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="D2331" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2331" s="4" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="F2331" s="4">
         <v>6</v>
@@ -69926,7 +70049,7 @@
         <v>0</v>
       </c>
       <c r="I2331" s="4" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="2332" spans="1:9" x14ac:dyDescent="0.2">
@@ -69934,13 +70057,13 @@
         <v>2008</v>
       </c>
       <c r="C2332" s="4" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="D2332" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2332" s="4" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="F2332" s="4">
         <v>12</v>
@@ -69952,7 +70075,7 @@
         <v>0</v>
       </c>
       <c r="I2332" s="4" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="2333" spans="1:9" x14ac:dyDescent="0.2">
@@ -69960,13 +70083,13 @@
         <v>2008</v>
       </c>
       <c r="C2333" s="4" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="D2333" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2333" s="4" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="F2333" s="4">
         <v>1</v>
@@ -69978,7 +70101,7 @@
         <v>0</v>
       </c>
       <c r="I2333" s="4" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="2334" spans="1:9" x14ac:dyDescent="0.2">
@@ -69986,13 +70109,13 @@
         <v>2008</v>
       </c>
       <c r="C2334" s="4" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="D2334" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2334" s="4" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="F2334" s="4">
         <v>2</v>
@@ -70004,7 +70127,7 @@
         <v>0</v>
       </c>
       <c r="I2334" s="4" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="2335" spans="1:9" x14ac:dyDescent="0.2">
@@ -70012,13 +70135,13 @@
         <v>2008</v>
       </c>
       <c r="C2335" s="4" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="D2335" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2335" s="4" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="F2335" s="4">
         <v>15</v>
@@ -70030,7 +70153,7 @@
         <v>0</v>
       </c>
       <c r="I2335" s="4" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="2336" spans="1:9" x14ac:dyDescent="0.2">
@@ -70038,13 +70161,13 @@
         <v>2008</v>
       </c>
       <c r="C2336" s="4" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="D2336" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E2336" s="4" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="F2336" s="4">
         <v>3</v>
@@ -70056,7 +70179,706 @@
         <v>0</v>
       </c>
       <c r="I2336" s="4" t="s">
-        <v>3875</v>
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2337" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2337" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D2337" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2337" s="4" t="s">
+        <v>3876</v>
+      </c>
+      <c r="F2337" s="4">
+        <v>1021</v>
+      </c>
+      <c r="G2337" s="4">
+        <v>2196</v>
+      </c>
+      <c r="H2337" s="4">
+        <v>22145.14</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2338" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2338" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D2338" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2338" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="F2338" s="4">
+        <v>1516</v>
+      </c>
+      <c r="G2338" s="4">
+        <v>1516</v>
+      </c>
+      <c r="H2338" s="4">
+        <v>15172.91</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2339" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2339" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D2339" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2339" s="4" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F2339" s="4">
+        <v>564</v>
+      </c>
+      <c r="G2339" s="4">
+        <v>671</v>
+      </c>
+      <c r="H2339" s="4">
+        <v>6712.75</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2340" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2340" s="4" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D2340" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2340" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="F2340" s="4">
+        <v>911</v>
+      </c>
+      <c r="G2340" s="4">
+        <v>1957</v>
+      </c>
+      <c r="H2340" s="4">
+        <v>19604.400000000001</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2341" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2341" s="4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D2341" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2341" s="4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="F2341" s="4">
+        <v>470</v>
+      </c>
+      <c r="G2341" s="4">
+        <v>1178</v>
+      </c>
+      <c r="H2341" s="4">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2342" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2342" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D2342" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2342" s="4" t="s">
+        <v>3883</v>
+      </c>
+      <c r="F2342" s="4">
+        <v>1570</v>
+      </c>
+      <c r="G2342" s="4">
+        <v>1570</v>
+      </c>
+      <c r="H2342" s="4">
+        <v>15720</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2343" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2343" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D2343" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2343" s="4" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F2343" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2343" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2343" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2344" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2344" s="4" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D2344" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2344" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="F2344" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2344" s="4">
+        <v>123</v>
+      </c>
+      <c r="H2344" s="4">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2345" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2345" s="4" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D2345" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2345" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="F2345" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2345" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2345" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2346" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2346" s="4" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D2346" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2346" s="4" t="s">
+        <v>3889</v>
+      </c>
+      <c r="F2346" s="4">
+        <v>268</v>
+      </c>
+      <c r="G2346" s="4">
+        <v>268</v>
+      </c>
+      <c r="H2346" s="4">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2347" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2347" s="4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D2347" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2347" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F2347" s="4">
+        <v>400</v>
+      </c>
+      <c r="G2347" s="4">
+        <v>400</v>
+      </c>
+      <c r="H2347" s="4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2348" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2348" s="4" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D2348" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2348" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="F2348" s="4">
+        <v>692</v>
+      </c>
+      <c r="G2348" s="4">
+        <v>692</v>
+      </c>
+      <c r="H2348" s="4">
+        <v>6921.01</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2349" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2349" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D2349" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2349" s="4" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F2349" s="4">
+        <v>2264</v>
+      </c>
+      <c r="G2349" s="4">
+        <v>2264</v>
+      </c>
+      <c r="H2349" s="4">
+        <v>22646.5</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2350" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2350" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D2350" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2350" s="4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="F2350" s="4">
+        <v>523</v>
+      </c>
+      <c r="G2350" s="4">
+        <v>601</v>
+      </c>
+      <c r="H2350" s="4">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2351" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2351" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2351" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2351" s="4" t="s">
+        <v>3895</v>
+      </c>
+      <c r="F2351" s="4">
+        <v>91</v>
+      </c>
+      <c r="G2351" s="4">
+        <v>91</v>
+      </c>
+      <c r="H2351" s="4">
+        <v>916.48</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2352" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2352" s="4" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D2352" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2352" s="4" t="s">
+        <v>3897</v>
+      </c>
+      <c r="F2352" s="4">
+        <v>529</v>
+      </c>
+      <c r="G2352" s="4">
+        <v>529</v>
+      </c>
+      <c r="H2352" s="4">
+        <v>5290.05</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2353" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2353" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D2353" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2353" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F2353" s="4">
+        <v>1272</v>
+      </c>
+      <c r="G2353" s="4">
+        <v>1272</v>
+      </c>
+      <c r="H2353" s="4">
+        <v>13126.36</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2354" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2354" s="4" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D2354" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2354" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="F2354" s="4">
+        <v>530</v>
+      </c>
+      <c r="G2354" s="4">
+        <v>530</v>
+      </c>
+      <c r="H2354" s="4">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2355" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2355" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2355" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2355" s="4" t="s">
+        <v>3901</v>
+      </c>
+      <c r="F2355" s="4">
+        <v>29</v>
+      </c>
+      <c r="G2355" s="4">
+        <v>1091</v>
+      </c>
+      <c r="H2355" s="4">
+        <v>10930</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2356" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2356" s="4" t="s">
+        <v>3902</v>
+      </c>
+      <c r="D2356" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2356" s="4" t="s">
+        <v>3903</v>
+      </c>
+      <c r="F2356" s="4">
+        <v>81</v>
+      </c>
+      <c r="G2356" s="4">
+        <v>692</v>
+      </c>
+      <c r="H2356" s="4">
+        <v>6941.25</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2357" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2357" s="4" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D2357" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2357" s="4" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F2357" s="4">
+        <v>1685</v>
+      </c>
+      <c r="G2357" s="4">
+        <v>1685</v>
+      </c>
+      <c r="H2357" s="4">
+        <v>17141.650000000001</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2358" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B2358" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2358" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D2358" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E2358" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="F2358" s="4">
+        <v>435</v>
+      </c>
+      <c r="G2358" s="4">
+        <v>435</v>
+      </c>
+      <c r="H2358" s="4">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2359" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2359" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D2359" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2359" s="4" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F2359" s="4">
+        <v>186</v>
+      </c>
+      <c r="G2359" s="4">
+        <v>186</v>
+      </c>
+      <c r="H2359" s="4">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2360" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B2360" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2360" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D2360" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2360" s="4" t="s">
+        <v>3909</v>
+      </c>
+      <c r="F2360" s="4">
+        <v>3320</v>
+      </c>
+      <c r="G2360" s="4">
+        <v>3320</v>
+      </c>
+      <c r="H2360" s="4">
+        <v>33214.17</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2361" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2361" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D2361" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2361" s="4" t="s">
+        <v>3910</v>
+      </c>
+      <c r="F2361" s="4">
+        <v>1157</v>
+      </c>
+      <c r="G2361" s="4">
+        <v>1157</v>
+      </c>
+      <c r="H2361" s="4">
+        <v>12400.36</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2362" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B2362" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C2362" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D2362" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2362" s="4" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F2362" s="4">
+        <v>748</v>
+      </c>
+      <c r="G2362" s="4">
+        <v>748</v>
+      </c>
+      <c r="H2362" s="4">
+        <v>11269</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2363" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2363" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D2363" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2363" s="4" t="s">
+        <v>3912</v>
+      </c>
+      <c r="F2363" s="4">
+        <v>80</v>
+      </c>
+      <c r="G2363" s="4">
+        <v>80</v>
+      </c>
+      <c r="H2363" s="4">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2364" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2364" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D2364" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2364" s="4" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F2364" s="4">
+        <v>2056</v>
+      </c>
+      <c r="G2364" s="4">
+        <v>2056</v>
+      </c>
+      <c r="H2364" s="4">
+        <v>20646.310000000001</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2365" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2365" s="4" t="s">
+        <v>3914</v>
+      </c>
+      <c r="D2365" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E2365" s="4" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F2365" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2365" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2365" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2366" s="4">
+        <v>2009</v>
+      </c>
+      <c r="C2366" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D2366" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E2366" s="4" t="s">
+        <v>3916</v>
+      </c>
+      <c r="F2366" s="4">
+        <v>341</v>
+      </c>
+      <c r="G2366" s="4">
+        <v>341</v>
+      </c>
+      <c r="H2366" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -70285,7 +71107,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70393,7 +71215,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>3440</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -70401,7 +71223,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/CLEAN DATA/The Boardroom Group/progress.xlsx
+++ b/CLEAN DATA/The Boardroom Group/progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9571" uniqueCount="4173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9691" uniqueCount="4198">
   <si>
     <t>Homelessness Secretariat</t>
   </si>
@@ -13038,12 +13038,87 @@
   <si>
     <t>Intact</t>
   </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>4:1200|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:2000|5:100|12:100</t>
+  </si>
+  <si>
+    <t>4:1000|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:1400|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:600|5:100|12:100</t>
+  </si>
+  <si>
+    <t>4:400|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:200|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:600|5:200|12:100</t>
+  </si>
+  <si>
+    <t>4:1600|5:200|12:0</t>
+  </si>
+  <si>
+    <t>4:600|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:600|5:0|12:200</t>
+  </si>
+  <si>
+    <t>4:0|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:800|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:2000|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:300|5:50|12:50</t>
+  </si>
+  <si>
+    <t>4:10000|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:5000|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:500|5:0|12:284</t>
+  </si>
+  <si>
+    <t>4:780|5:0|12:50</t>
+  </si>
+  <si>
+    <t>Web-Phone Toronto</t>
+  </si>
+  <si>
+    <t>4:1076|5:0|12:0</t>
+  </si>
+  <si>
+    <t>4:39|5:0|12:150</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13092,6 +13167,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -13543,11 +13624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2600"/>
+  <dimension ref="A1:I2660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2559" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2601" sqref="A2601"/>
+      <pane ySplit="1" topLeftCell="A2611" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2640" sqref="C2640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -76268,6 +76349,906 @@
       </c>
       <c r="G2600" s="4">
         <v>203</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2601" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2601" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D2601" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2601" s="4" t="s">
+        <v>4176</v>
+      </c>
+      <c r="G2601" s="4">
+        <v>1660</v>
+      </c>
+      <c r="H2601" s="4">
+        <v>16607.66</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2602" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2602" s="4" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D2602" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2602" s="4" t="s">
+        <v>4177</v>
+      </c>
+      <c r="G2602" s="4">
+        <v>546</v>
+      </c>
+      <c r="H2602" s="4">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2603" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2603" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D2603" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2603" s="4" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G2603" s="4">
+        <v>709</v>
+      </c>
+      <c r="H2603" s="4">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2604" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2604" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="D2604" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2604" s="4" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G2604" s="4">
+        <v>1176</v>
+      </c>
+      <c r="H2604" s="4">
+        <v>11760</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2605" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2605" s="4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D2605" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2605" s="4" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G2605" s="4">
+        <v>1017</v>
+      </c>
+      <c r="H2605" s="4">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2606" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2606" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D2606" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2606" s="4" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G2606" s="4">
+        <v>838</v>
+      </c>
+      <c r="H2606" s="4">
+        <v>8379.58</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2607" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2607" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2607" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2607" s="4" t="s">
+        <v>4179</v>
+      </c>
+      <c r="G2607" s="4">
+        <v>1132</v>
+      </c>
+      <c r="H2607" s="4">
+        <v>11326.98</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2608" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2608" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2608" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2608" s="4" t="s">
+        <v>4180</v>
+      </c>
+      <c r="G2608" s="4">
+        <v>735</v>
+      </c>
+      <c r="H2608" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2609" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2609" s="4" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2609" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2609" s="4" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G2609" s="4">
+        <v>284</v>
+      </c>
+      <c r="H2609" s="4">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2610" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2610" s="4" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D2610" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2610" s="4" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G2610" s="4">
+        <v>63</v>
+      </c>
+      <c r="H2610" s="4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2611" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2611" s="4" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D2611" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2611" s="4" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G2611" s="4">
+        <v>584</v>
+      </c>
+      <c r="H2611" s="4">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2612" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2612" s="4" t="s">
+        <v>4158</v>
+      </c>
+      <c r="D2612" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2612" s="4" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G2612" s="4">
+        <v>200</v>
+      </c>
+      <c r="H2612" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2613" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2613" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D2613" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2613" s="4" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G2613" s="4">
+        <v>504</v>
+      </c>
+      <c r="H2613" s="4">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2614" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2614" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D2614" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2614" s="4" t="s">
+        <v>4178</v>
+      </c>
+      <c r="G2614" s="4">
+        <v>1490</v>
+      </c>
+      <c r="H2614" s="4">
+        <v>14907.12</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2615" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2615" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D2615" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2615" s="4" t="s">
+        <v>4179</v>
+      </c>
+      <c r="G2615" s="4">
+        <v>1898</v>
+      </c>
+      <c r="H2615" s="4">
+        <v>18980</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2616" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2616" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2616" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2616" s="4" t="s">
+        <v>4183</v>
+      </c>
+      <c r="G2616" s="4">
+        <v>730</v>
+      </c>
+      <c r="H2616" s="4">
+        <v>7304.05</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2617" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2617" s="4" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D2617" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2617" s="4" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G2617" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2617" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2618" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2618" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D2618" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2618" s="4" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G2618" s="4">
+        <v>1870</v>
+      </c>
+      <c r="H2618" s="4">
+        <v>18705.86</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2619" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2619" s="4" t="s">
+        <v>4160</v>
+      </c>
+      <c r="D2619" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2619" s="4" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G2619" s="4">
+        <v>102</v>
+      </c>
+      <c r="H2619" s="4">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2620" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2620" s="4" t="s">
+        <v>4174</v>
+      </c>
+      <c r="D2620" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2620" s="4" t="s">
+        <v>4185</v>
+      </c>
+      <c r="G2620" s="4">
+        <v>421</v>
+      </c>
+      <c r="H2620" s="4">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2621" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2621" s="4" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D2621" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2621" s="4" t="s">
+        <v>4186</v>
+      </c>
+      <c r="G2621" s="4">
+        <v>1110</v>
+      </c>
+      <c r="H2621" s="4">
+        <v>11108.42</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2622" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2622" s="4" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D2622" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2622" s="4" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G2622" s="4">
+        <v>121</v>
+      </c>
+      <c r="H2622" s="4">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2623" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2623" s="4" t="s">
+        <v>4163</v>
+      </c>
+      <c r="D2623" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2623" s="4" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G2623" s="4">
+        <v>40</v>
+      </c>
+      <c r="H2623" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2624" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2624" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D2624" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2624" s="4" t="s">
+        <v>4188</v>
+      </c>
+      <c r="G2624" s="4">
+        <v>574</v>
+      </c>
+      <c r="H2624" s="4">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2625" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2625" s="4" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D2625" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2625" s="4" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G2625" s="4">
+        <v>494</v>
+      </c>
+      <c r="H2625" s="4">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2626" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2626" s="4" t="s">
+        <v>4175</v>
+      </c>
+      <c r="D2626" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2626" s="4" t="s">
+        <v>4189</v>
+      </c>
+      <c r="G2626" s="4">
+        <v>536</v>
+      </c>
+      <c r="H2626" s="4">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2627" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2627" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="D2627" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2627" s="4" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G2627" s="4">
+        <v>978</v>
+      </c>
+      <c r="H2627" s="4">
+        <v>9789.8700000000008</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2628" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2628" s="4" t="s">
+        <v>3930</v>
+      </c>
+      <c r="D2628" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2628" s="4" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G2628" s="4">
+        <v>298</v>
+      </c>
+      <c r="H2628" s="4">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2629" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2629" s="4" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D2629" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2629" s="4" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G2629" s="4">
+        <v>99</v>
+      </c>
+      <c r="H2629" s="4">
+        <v>998.5</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2630" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2630" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D2630" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2630" s="4" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G2630" s="4">
+        <v>745</v>
+      </c>
+      <c r="H2630" s="4">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2631" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2631" s="4" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D2631" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E2631" s="4" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G2631" s="4">
+        <v>382</v>
+      </c>
+      <c r="H2631" s="4">
+        <v>3826.29</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2632" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2632" s="4" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D2632" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2632" s="4" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G2632" s="4">
+        <v>348</v>
+      </c>
+      <c r="H2632" s="4">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2633" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2633" s="4" t="s">
+        <v>4172</v>
+      </c>
+      <c r="D2633" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2633" s="4" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G2633" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H2633" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2634" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2634" s="4" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D2634" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2634" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="G2634" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H2634" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2635" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2635" s="4" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D2635" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2635" s="4" t="s">
+        <v>4193</v>
+      </c>
+      <c r="G2635" s="4">
+        <v>784</v>
+      </c>
+      <c r="H2635" s="4">
+        <v>7845.42</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2636" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2636" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D2636" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2636" s="4" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G2636" s="4">
+        <v>908</v>
+      </c>
+      <c r="H2636" s="4">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2637" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2637" s="4" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D2637" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2637" s="4" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G2637" s="4">
+        <v>2025</v>
+      </c>
+      <c r="H2637" s="4">
+        <v>20256</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2638" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2638" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D2638" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2638" s="4" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G2638" s="4">
+        <v>250</v>
+      </c>
+      <c r="H2638" s="4">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2639" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2639" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D2639" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2639" s="4" t="s">
+        <v>4196</v>
+      </c>
+      <c r="G2639" s="4">
+        <v>1076</v>
+      </c>
+      <c r="H2639" s="4">
+        <v>10763.75</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2640" s="4">
+        <v>2011</v>
+      </c>
+      <c r="C2640" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D2640" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2640" s="4" t="s">
+        <v>4197</v>
+      </c>
+      <c r="G2640" s="4">
+        <v>349</v>
+      </c>
+      <c r="H2640" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2641" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2642" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2643" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2644" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2645" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2646" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2647" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2648" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2649" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2650" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2651" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2652" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2653" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2654" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2655" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2656" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2657" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2658" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2659" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2660" s="4">
+        <v>2011</v>
       </c>
     </row>
   </sheetData>

--- a/CLEAN DATA/The Boardroom Group/progress.xlsx
+++ b/CLEAN DATA/The Boardroom Group/progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9691" uniqueCount="4198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9783" uniqueCount="4239">
   <si>
     <t>Homelessness Secretariat</t>
   </si>
@@ -13113,12 +13113,135 @@
   <si>
     <t>4:39|5:0|12:150</t>
   </si>
+  <si>
+    <t>Out of the Rain</t>
+  </si>
+  <si>
+    <t>Dawn to Dawn</t>
+  </si>
+  <si>
+    <t>Pacific Community Resources Society Youth Services</t>
+  </si>
+  <si>
+    <t>Lookout Emergency Aid Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasons House </t>
+  </si>
+  <si>
+    <t>Centre of Hope</t>
+  </si>
+  <si>
+    <t>Servants Anonymous Society of Calgary</t>
+  </si>
+  <si>
+    <t>Calgary John Howard Society: Raido House</t>
+  </si>
+  <si>
+    <t>Homeward Trust Edmonton</t>
+  </si>
+  <si>
+    <t>Rainbow Youth Centre</t>
+  </si>
+  <si>
+    <t>Macdonald Youth Services</t>
+  </si>
+  <si>
+    <t>Stratford/Perth Shelterlink</t>
+  </si>
+  <si>
+    <t>The Hope Centre</t>
+  </si>
+  <si>
+    <t>YWCA Niagara Region</t>
+  </si>
+  <si>
+    <t>Community Care - St. Cath &amp; Thorold</t>
+  </si>
+  <si>
+    <t>Wesley Urban Ministries Inc.</t>
+  </si>
+  <si>
+    <t>360 kids</t>
+  </si>
+  <si>
+    <t>Houselink Community</t>
+  </si>
+  <si>
+    <t>St. Christopher House</t>
+  </si>
+  <si>
+    <t>Sherbourne Health Centre</t>
+  </si>
+  <si>
+    <t>Grimsby Affordable Housing Partnership</t>
+  </si>
+  <si>
+    <t>Port Cares</t>
+  </si>
+  <si>
+    <t>Sudbury Action Centre for Youth</t>
+  </si>
+  <si>
+    <t>Couchiching Jubilee House</t>
+  </si>
+  <si>
+    <t>Operation Come Home</t>
+  </si>
+  <si>
+    <t>Cornerstone Landing ER</t>
+  </si>
+  <si>
+    <t>Youth Opportunities Limited</t>
+  </si>
+  <si>
+    <t>Groupe Communautaire L'Itinéraire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectre de rue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maison Le Baluchon </t>
+  </si>
+  <si>
+    <t>RAP Jeunesse des Laurentides</t>
+  </si>
+  <si>
+    <t>YWCA Halifax</t>
+  </si>
+  <si>
+    <t>Bryony House</t>
+  </si>
+  <si>
+    <t>SHYFT</t>
+  </si>
+  <si>
+    <t>Pictou County Roots for Youth</t>
+  </si>
+  <si>
+    <t>Saint John Human Development Council - Safe Harbour</t>
+  </si>
+  <si>
+    <t>Moncton Youth Residences</t>
+  </si>
+  <si>
+    <t>Labrador Friendship Centre</t>
+  </si>
+  <si>
+    <t>Community Youth Network / Humber Community YMCA</t>
+  </si>
+  <si>
+    <t>Choices for Youth</t>
+  </si>
+  <si>
+    <t>Newfoundland &amp; Labrador Housing &amp; Homelessness Network</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13167,12 +13290,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -13624,11 +13741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2660"/>
+  <dimension ref="A1:I2687"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2611" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2640" sqref="C2640"/>
+      <pane ySplit="1" topLeftCell="A2642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2687" sqref="A2687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -77151,104 +77268,653 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2641" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2641" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2642" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2641" s="4" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D2641" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2641" s="4">
+        <v>2287.15</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2642" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2643" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2642" s="4" t="s">
+        <v>4199</v>
+      </c>
+      <c r="D2642" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2642" s="4">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2643" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2644" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2643" s="4" t="s">
+        <v>4200</v>
+      </c>
+      <c r="D2643" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2643" s="4">
+        <v>6389.5</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2644" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2645" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2644" s="4" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D2644" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2644" s="4">
+        <v>8202.5</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2645" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2646" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2645" s="4" t="s">
+        <v>4202</v>
+      </c>
+      <c r="D2645" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2645" s="4">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2646" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2647" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2646" s="4" t="s">
+        <v>4203</v>
+      </c>
+      <c r="D2646" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2646" s="4">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2647" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2648" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2647" s="4" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D2647" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2647" s="4">
+        <v>12260.67</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2648" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2649" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2648" s="4" t="s">
+        <v>4205</v>
+      </c>
+      <c r="D2648" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2648" s="4">
+        <v>4475.6900000000005</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2649" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2650" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2649" s="4" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D2649" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2649" s="4">
+        <v>17726.510000000002</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2650" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2651" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2650" s="4" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D2650" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2650" s="4">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2651" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2652" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2651" s="4" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D2651" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2651" s="4">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2652" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2653" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2652" s="4" t="s">
+        <v>4209</v>
+      </c>
+      <c r="D2652" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2652" s="4">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2653" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2654" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2653" s="4" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D2653" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2653" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2654" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2655" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2654" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D2654" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2654" s="4">
+        <v>3134.75</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2655" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2656" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2655" s="4" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D2655" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2655" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2656" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2657" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2656" s="4" t="s">
+        <v>4212</v>
+      </c>
+      <c r="D2656" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2656" s="4">
+        <v>19855.14</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2657" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2658" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2657" s="4" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D2657" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2657" s="4">
+        <v>13113</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2658" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2659" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2658" s="4" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D2658" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2658" s="4">
+        <v>20685.599999999999</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2659" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2660" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="C2659" s="4" t="s">
+        <v>4215</v>
+      </c>
+      <c r="D2659" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2659" s="4">
+        <v>11094.53</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2660" s="4">
-        <v>2011</v>
+        <v>2014</v>
+      </c>
+      <c r="C2660" s="4" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D2660" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2660" s="4">
+        <v>9986.7800000000007</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2661" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2661" s="4" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D2661" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2661" s="4">
+        <v>15235.119999999999</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2662" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2662" s="4" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D2662" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2662" s="4">
+        <v>11580</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2663" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2663" s="4" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D2663" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2663" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2664" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2664" s="4" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D2664" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2664" s="4">
+        <v>4090.57</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2665" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2665" s="4" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D2665" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2665" s="4">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2666" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2666" s="4" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D2666" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2666" s="4">
+        <v>4600.6000000000004</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2667" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2667" s="4" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D2667" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2667" s="4">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2668" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2668" s="4" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D2668" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2668" s="4">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2669" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2669" s="4" t="s">
+        <v>4224</v>
+      </c>
+      <c r="D2669" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2669" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2670" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2670" s="4" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D2670" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2670" s="4">
+        <v>7741</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2671" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2671" s="4" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D2671" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2671" s="4">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2672" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2672" s="4" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D2672" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2672" s="4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2673" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2673" s="4" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D2673" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2673" s="4">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2674" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2674" s="4" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D2674" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2674" s="4">
+        <v>3199.05</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2675" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2675" s="4" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D2675" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2675" s="4">
+        <v>4896.6499999999996</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2676" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2676" s="4" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D2676" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2676" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2677" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2677" s="4" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D2677" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2677" s="4">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2678" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2678" s="4" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D2678" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2678" s="4">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2679" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2679" s="4" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D2679" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2679" s="4">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2680" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2680" s="4" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D2680" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2680" s="4">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2681" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2681" s="4" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D2681" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2681" s="4">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2682" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2682" s="4" t="s">
+        <v>4237</v>
+      </c>
+      <c r="D2682" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2682" s="4">
+        <v>1697.5</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2683" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2683" s="4" t="s">
+        <v>4238</v>
+      </c>
+      <c r="D2683" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2683" s="4">
+        <v>2907.5</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2684" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2684" s="4" t="s">
+        <v>4172</v>
+      </c>
+      <c r="D2684" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2684" s="4">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2685" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2685" s="4" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D2685" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2685" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2686" s="4">
+        <v>2014</v>
+      </c>
+      <c r="C2686" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2686" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="H2686" s="4">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2687" s="4">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
